--- a/data/new_data/DH/squeezed/squeezed_Đồng Tháp.xlsx
+++ b/data/new_data/DH/squeezed/squeezed_Đồng Tháp.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trinhtruc/Documents/STUDY/NCKH/Source/Source_14012023_v4/data/new_data/DH/squeezed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5926D44A-286B-524B-B004-91848DA1EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15480" yWindow="500" windowWidth="13320" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,11 +130,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +198,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -270,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -304,9 +319,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,14 +495,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG198" sqref="AG198"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="35" max="35" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -613,7 +634,7 @@
         <v>2647</v>
       </c>
       <c r="H2">
-        <v>78.90000000000001</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I2">
         <v>0.4</v>
@@ -664,16 +685,16 @@
         <v>143.0342577487765</v>
       </c>
       <c r="AG2">
-        <v>11.09298531810767</v>
+        <v>11.092985318107671</v>
       </c>
       <c r="AH2">
-        <v>172.7243066884176</v>
+        <v>172.72430668841761</v>
       </c>
       <c r="AI2" s="2">
         <v>35461</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -744,10 +765,10 @@
         <v>1320.1</v>
       </c>
       <c r="AF3">
-        <v>118.5644371941272</v>
+        <v>118.56443719412719</v>
       </c>
       <c r="AG3">
-        <v>3.132137030995106</v>
+        <v>3.1321370309951062</v>
       </c>
       <c r="AH3">
         <v>221.9249592169657</v>
@@ -756,7 +777,7 @@
         <v>35489</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -800,7 +821,7 @@
         <v>23.1</v>
       </c>
       <c r="O4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P4">
         <v>21.1</v>
@@ -830,16 +851,16 @@
         <v>127.9608482871126</v>
       </c>
       <c r="AG4">
-        <v>2.414355628058728</v>
+        <v>2.4143556280587282</v>
       </c>
       <c r="AH4">
-        <v>203.5236541598695</v>
+        <v>203.52365415986949</v>
       </c>
       <c r="AI4" s="2">
         <v>35520</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -865,7 +886,7 @@
         <v>108.4</v>
       </c>
       <c r="I5">
-        <v>66.40000000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J5">
         <v>32.1</v>
@@ -910,7 +931,7 @@
         <v>1320.1</v>
       </c>
       <c r="AF5">
-        <v>113.605220228385</v>
+        <v>113.60522022838499</v>
       </c>
       <c r="AG5">
         <v>2.349102773246329</v>
@@ -922,7 +943,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -960,7 +981,7 @@
         <v>28.3</v>
       </c>
       <c r="M6">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="N6">
         <v>25.1</v>
@@ -993,19 +1014,19 @@
         <v>1320.1</v>
       </c>
       <c r="AF6">
-        <v>103.6867862969005</v>
+        <v>103.68678629690049</v>
       </c>
       <c r="AG6">
-        <v>3.458401305057096</v>
+        <v>3.4584013050570959</v>
       </c>
       <c r="AH6">
-        <v>181.6639477977162</v>
+        <v>181.66394779771619</v>
       </c>
       <c r="AI6" s="2">
         <v>35581</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1028,7 +1049,7 @@
         <v>2748</v>
       </c>
       <c r="H7">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="I7">
         <v>45.7</v>
@@ -1079,7 +1100,7 @@
         <v>12.85481239804241</v>
       </c>
       <c r="AG7">
-        <v>0.4567699836867863</v>
+        <v>0.45676998368678629</v>
       </c>
       <c r="AH7">
         <v>179.3148450244698</v>
@@ -1088,7 +1109,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1144,7 +1165,7 @@
         <v>59</v>
       </c>
       <c r="S8">
-        <v>139.3</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="T8">
         <v>750</v>
@@ -1159,10 +1180,10 @@
         <v>1320.1</v>
       </c>
       <c r="AF8">
-        <v>130.8319738988581</v>
+        <v>130.83197389885811</v>
       </c>
       <c r="AG8">
-        <v>6.851549755301795</v>
+        <v>6.8515497553017948</v>
       </c>
       <c r="AH8">
         <v>177.6182707993475</v>
@@ -1171,7 +1192,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1215,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="O9">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P9">
         <v>23.1</v>
@@ -1242,19 +1263,19 @@
         <v>1320.1</v>
       </c>
       <c r="AF9">
-        <v>14.48613376835237</v>
+        <v>14.486133768352371</v>
       </c>
       <c r="AG9">
-        <v>15.53017944535073</v>
+        <v>15.530179445350729</v>
       </c>
       <c r="AH9">
-        <v>156.5415986949429</v>
+        <v>156.54159869494291</v>
       </c>
       <c r="AI9" s="2">
         <v>35673</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1325,19 +1346,19 @@
         <v>1320.1</v>
       </c>
       <c r="AF10">
-        <v>201.6313213703099</v>
+        <v>201.63132137030991</v>
       </c>
       <c r="AG10">
-        <v>38.62969004893964</v>
+        <v>38.629690048939644</v>
       </c>
       <c r="AH10">
-        <v>161.5660685154976</v>
+        <v>161.56606851549759</v>
       </c>
       <c r="AI10" s="2">
         <v>35703</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>2563</v>
       </c>
       <c r="H11">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="I11">
         <v>252.9</v>
@@ -1381,7 +1402,7 @@
         <v>25.2</v>
       </c>
       <c r="O11">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P11">
         <v>23.3</v>
@@ -1408,19 +1429,19 @@
         <v>1320.1</v>
       </c>
       <c r="AF11">
-        <v>226.6884176182708</v>
+        <v>226.68841761827079</v>
       </c>
       <c r="AG11">
-        <v>61.92495921696575</v>
+        <v>61.924959216965753</v>
       </c>
       <c r="AH11">
-        <v>167.2430668841762</v>
+        <v>167.24306688417619</v>
       </c>
       <c r="AI11" s="2">
         <v>35734</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1494,16 +1515,16 @@
         <v>145.6443719412724</v>
       </c>
       <c r="AG12">
-        <v>49.39641109298532</v>
+        <v>49.396411092985318</v>
       </c>
       <c r="AH12">
-        <v>143.9477977161501</v>
+        <v>143.94779771615009</v>
       </c>
       <c r="AI12" s="2">
         <v>35764</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>6.7</v>
       </c>
       <c r="J13">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1574,19 +1595,19 @@
         <v>1320.1</v>
       </c>
       <c r="AF13">
-        <v>146.7536704730832</v>
+        <v>146.75367047308319</v>
       </c>
       <c r="AG13">
-        <v>58.85807504078303</v>
+        <v>58.858075040783028</v>
       </c>
       <c r="AH13">
-        <v>161.5008156606851</v>
+        <v>161.50081566068511</v>
       </c>
       <c r="AI13" s="2">
         <v>35795</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1657,19 +1678,19 @@
         <v>1336.8</v>
       </c>
       <c r="AF14">
-        <v>152.9071635078702</v>
+        <v>152.90716350787019</v>
       </c>
       <c r="AG14">
-        <v>41.56761965949245</v>
+        <v>41.567619659492451</v>
       </c>
       <c r="AH14">
-        <v>169.9967876646322</v>
+        <v>169.99678766463219</v>
       </c>
       <c r="AI14" s="2">
         <v>35826</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>2426</v>
       </c>
       <c r="H15">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1707,13 +1728,13 @@
         <v>27</v>
       </c>
       <c r="M15">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N15">
         <v>23.7</v>
       </c>
       <c r="O15">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P15">
         <v>22.4</v>
@@ -1740,19 +1761,19 @@
         <v>1336.8</v>
       </c>
       <c r="AF15">
-        <v>133.8901381304208</v>
+        <v>133.89013813042081</v>
       </c>
       <c r="AG15">
         <v>12.7208480565371</v>
       </c>
       <c r="AH15">
-        <v>155.8625120462576</v>
+        <v>155.86251204625759</v>
       </c>
       <c r="AI15" s="2">
         <v>35854</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1826,16 +1847,16 @@
         <v>146.8679730163829</v>
       </c>
       <c r="AG16">
-        <v>9.251525859299711</v>
+        <v>9.2515258592997114</v>
       </c>
       <c r="AH16">
-        <v>173.9158368133633</v>
+        <v>173.91583681336331</v>
       </c>
       <c r="AI16" s="2">
         <v>35885</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1879,7 +1900,7 @@
         <v>25.7</v>
       </c>
       <c r="O17">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="P17">
         <v>24.1</v>
@@ -1909,16 +1930,16 @@
         <v>177.9633793768069</v>
       </c>
       <c r="AG17">
-        <v>22.74333440411179</v>
+        <v>22.743334404111788</v>
       </c>
       <c r="AH17">
-        <v>208.030838419531</v>
+        <v>208.03083841953099</v>
       </c>
       <c r="AI17" s="2">
         <v>35915</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1989,19 +2010,19 @@
         <v>1336.8</v>
       </c>
       <c r="AF18">
-        <v>244.9084484420173</v>
+        <v>244.90844844201729</v>
       </c>
       <c r="AG18">
-        <v>21.07292001284934</v>
+        <v>21.072920012849341</v>
       </c>
       <c r="AH18">
-        <v>177.3851590106007</v>
+        <v>177.38515901060069</v>
       </c>
       <c r="AI18" s="2">
         <v>35946</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2039,7 +2060,7 @@
         <v>28.1</v>
       </c>
       <c r="M19">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N19">
         <v>25.6</v>
@@ -2075,7 +2096,7 @@
         <v>121.4262769033087</v>
       </c>
       <c r="AG19">
-        <v>12.78509476389335</v>
+        <v>12.785094763893349</v>
       </c>
       <c r="AH19">
         <v>112.174751044009</v>
@@ -2084,7 +2105,7 @@
         <v>35976</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2128,7 +2149,7 @@
         <v>25</v>
       </c>
       <c r="O20">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P20">
         <v>23.7</v>
@@ -2158,7 +2179,7 @@
         <v>202.7626084163187</v>
       </c>
       <c r="AG20">
-        <v>36.6848699004176</v>
+        <v>36.684869900417603</v>
       </c>
       <c r="AH20">
         <v>235.8496627047864</v>
@@ -2167,7 +2188,7 @@
         <v>36007</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>2756</v>
       </c>
       <c r="H21">
-        <v>69.09999999999999</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="I21">
         <v>222.8</v>
@@ -2205,7 +2226,7 @@
         <v>27.6</v>
       </c>
       <c r="M21">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N21">
         <v>24.9</v>
@@ -2241,16 +2262,16 @@
         <v>192.740122068744</v>
       </c>
       <c r="AG21">
-        <v>72.98425955669772</v>
+        <v>72.984259556697722</v>
       </c>
       <c r="AH21">
-        <v>177.0639254738195</v>
+        <v>177.06392547381949</v>
       </c>
       <c r="AI21" s="2">
         <v>36038</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2294,7 +2315,7 @@
         <v>24.9</v>
       </c>
       <c r="O22">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P22">
         <v>23.3</v>
@@ -2306,7 +2327,7 @@
         <v>53</v>
       </c>
       <c r="S22">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="T22">
         <v>763.4</v>
@@ -2321,19 +2342,19 @@
         <v>1336.8</v>
       </c>
       <c r="AF22">
-        <v>189.5277867009316</v>
+        <v>189.52778670093161</v>
       </c>
       <c r="AG22">
-        <v>70.22165114037907</v>
+        <v>70.221651140379066</v>
       </c>
       <c r="AH22">
-        <v>141.6639897205268</v>
+        <v>141.66398972052681</v>
       </c>
       <c r="AI22" s="2">
         <v>36068</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2404,10 +2425,10 @@
         <v>1336.8</v>
       </c>
       <c r="AF23">
-        <v>191.3266945069065</v>
+        <v>191.32669450690651</v>
       </c>
       <c r="AG23">
-        <v>68.10150979762287</v>
+        <v>68.101509797622867</v>
       </c>
       <c r="AH23">
         <v>150.787022165114</v>
@@ -2416,7 +2437,7 @@
         <v>36099</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2439,10 +2460,10 @@
         <v>2167</v>
       </c>
       <c r="H24">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="I24">
-        <v>287.6</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="J24">
         <v>64.3</v>
@@ -2487,19 +2508,19 @@
         <v>1336.8</v>
       </c>
       <c r="AF24">
-        <v>153.1641503372952</v>
+        <v>153.16415033729521</v>
       </c>
       <c r="AG24">
         <v>48.24927722454224</v>
       </c>
       <c r="AH24">
-        <v>139.2226148409894</v>
+        <v>139.22261484098939</v>
       </c>
       <c r="AI24" s="2">
         <v>36129</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2546,7 +2567,7 @@
         <v>30.9</v>
       </c>
       <c r="P25">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="Q25">
         <v>86</v>
@@ -2570,19 +2591,19 @@
         <v>1336.8</v>
       </c>
       <c r="AF25">
-        <v>133.0549309347896</v>
+        <v>133.05493093478961</v>
       </c>
       <c r="AG25">
-        <v>22.22936074526181</v>
+        <v>22.229360745261811</v>
       </c>
       <c r="AH25">
-        <v>136.2030195952457</v>
+        <v>136.20301959524571</v>
       </c>
       <c r="AI25" s="2">
         <v>36160</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2605,7 +2626,7 @@
         <v>2448</v>
       </c>
       <c r="H26">
-        <v>69.90000000000001</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I26">
         <v>48.3</v>
@@ -2659,13 +2680,13 @@
         <v>10.71291927050121</v>
       </c>
       <c r="AH26">
-        <v>156.1025379415891</v>
+        <v>156.10253794158911</v>
       </c>
       <c r="AI26" s="2">
         <v>36191</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2712,7 +2733,7 @@
         <v>32.9</v>
       </c>
       <c r="P27">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Q27">
         <v>80</v>
@@ -2742,13 +2763,13 @@
         <v>5.356459635250606</v>
       </c>
       <c r="AH27">
-        <v>268.3331207754113</v>
+        <v>268.33312077541132</v>
       </c>
       <c r="AI27" s="2">
         <v>36219</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2771,7 +2792,7 @@
         <v>2752</v>
       </c>
       <c r="H28">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="I28">
         <v>49</v>
@@ -2792,7 +2813,7 @@
         <v>24.4</v>
       </c>
       <c r="O28">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P28">
         <v>22.7</v>
@@ -2819,19 +2840,19 @@
         <v>1338.8</v>
       </c>
       <c r="AF28">
-        <v>134.868001530417</v>
+        <v>134.86800153041699</v>
       </c>
       <c r="AG28">
-        <v>5.483994388470858</v>
+        <v>5.4839943884708582</v>
       </c>
       <c r="AH28">
-        <v>175.4878204310675</v>
+        <v>175.48782043106749</v>
       </c>
       <c r="AI28" s="2">
         <v>36250</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2854,7 +2875,7 @@
         <v>2605</v>
       </c>
       <c r="H29">
-        <v>67.90000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="I29">
         <v>248.6</v>
@@ -2875,7 +2896,7 @@
         <v>24.9</v>
       </c>
       <c r="O29">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="P29">
         <v>23.5</v>
@@ -2887,7 +2908,7 @@
         <v>60</v>
       </c>
       <c r="S29">
-        <v>162.2</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="T29">
         <v>769.5</v>
@@ -2902,19 +2923,19 @@
         <v>1338.8</v>
       </c>
       <c r="AF29">
-        <v>146.1548271904094</v>
+        <v>146.15482719040941</v>
       </c>
       <c r="AG29">
-        <v>5.61152914169111</v>
+        <v>5.6115291416911104</v>
       </c>
       <c r="AH29">
-        <v>166.1140160693789</v>
+        <v>166.11401606937889</v>
       </c>
       <c r="AI29" s="2">
         <v>36280</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2958,7 +2979,7 @@
         <v>24.9</v>
       </c>
       <c r="O30">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P30">
         <v>23.6</v>
@@ -2985,19 +3006,19 @@
         <v>1338.8</v>
       </c>
       <c r="AF30">
-        <v>199.0179824002041</v>
+        <v>199.01798240020409</v>
       </c>
       <c r="AG30">
-        <v>5.61152914169111</v>
+        <v>5.6115291416911104</v>
       </c>
       <c r="AH30">
-        <v>134.9955362836373</v>
+        <v>134.99553628363731</v>
       </c>
       <c r="AI30" s="2">
         <v>36311</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3068,19 +3089,19 @@
         <v>1338.8</v>
       </c>
       <c r="AF31">
-        <v>149.6620329039663</v>
+        <v>149.66203290396629</v>
       </c>
       <c r="AG31">
-        <v>10.52161714067083</v>
+        <v>10.521617140670831</v>
       </c>
       <c r="AH31">
-        <v>146.47366407346</v>
+        <v>146.47366407345999</v>
       </c>
       <c r="AI31" s="2">
         <v>36341</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3124,7 +3145,7 @@
         <v>24.4</v>
       </c>
       <c r="O32">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P32">
         <v>22.3</v>
@@ -3157,13 +3178,13 @@
         <v>15.68677464609106</v>
       </c>
       <c r="AH32">
-        <v>160.8213238107384</v>
+        <v>160.82132381073839</v>
       </c>
       <c r="AI32" s="2">
         <v>36372</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3189,7 +3210,7 @@
         <v>76</v>
       </c>
       <c r="I33">
-        <v>131.2</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="J33">
         <v>45.8</v>
@@ -3207,7 +3228,7 @@
         <v>24.9</v>
       </c>
       <c r="O33">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P33">
         <v>22.7</v>
@@ -3237,7 +3258,7 @@
         <v>130.5955872975386</v>
       </c>
       <c r="AG33">
-        <v>16.64328529524295</v>
+        <v>16.643285295242951</v>
       </c>
       <c r="AH33">
         <v>126.3231730646601</v>
@@ -3246,7 +3267,7 @@
         <v>36403</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3272,7 +3293,7 @@
         <v>83</v>
       </c>
       <c r="I34">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="J34">
         <v>35.6</v>
@@ -3320,16 +3341,16 @@
         <v>120.5841091697488</v>
       </c>
       <c r="AG34">
-        <v>21.17076903456192</v>
+        <v>21.170769034561921</v>
       </c>
       <c r="AH34">
-        <v>130.4680525443183</v>
+        <v>130.46805254431831</v>
       </c>
       <c r="AI34" s="2">
         <v>36433</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3412,7 +3433,7 @@
         <v>36464</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3456,7 +3477,7 @@
         <v>24.6</v>
       </c>
       <c r="O36">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P36">
         <v>23.1</v>
@@ -3483,10 +3504,10 @@
         <v>1338.8</v>
       </c>
       <c r="AF36">
-        <v>151.4475194490498</v>
+        <v>151.44751944904979</v>
       </c>
       <c r="AG36">
-        <v>20.4055605152404</v>
+        <v>20.405560515240399</v>
       </c>
       <c r="AH36">
         <v>124.2826170131361</v>
@@ -3495,7 +3516,7 @@
         <v>36494</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3566,19 +3587,19 @@
         <v>1338.8</v>
       </c>
       <c r="AF37">
-        <v>132.1260043361816</v>
+        <v>132.12600433618161</v>
       </c>
       <c r="AG37">
         <v>13.26361433490626</v>
       </c>
       <c r="AH37">
-        <v>137.5462313480423</v>
+        <v>137.54623134804231</v>
       </c>
       <c r="AI37" s="2">
         <v>36525</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3601,7 +3622,7 @@
         <v>2100</v>
       </c>
       <c r="H38">
-        <v>78.09999999999999</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="I38">
         <v>50.4</v>
@@ -3649,19 +3670,19 @@
         <v>1349.6</v>
       </c>
       <c r="AF38">
-        <v>97.74769075034797</v>
+        <v>97.747690750347971</v>
       </c>
       <c r="AG38">
-        <v>5.820574465392889</v>
+        <v>5.8205744653928893</v>
       </c>
       <c r="AH38">
-        <v>132.8609388839681</v>
+        <v>132.86093888396809</v>
       </c>
       <c r="AI38" s="2">
         <v>36556</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>2720</v>
       </c>
       <c r="H39">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="I39">
         <v>13.6</v>
@@ -3732,19 +3753,19 @@
         <v>1349.6</v>
       </c>
       <c r="AF39">
-        <v>116.7910919903834</v>
+        <v>116.79109199038341</v>
       </c>
       <c r="AG39">
         <v>3.036821460204985</v>
       </c>
       <c r="AH39">
-        <v>172.0865494116159</v>
+        <v>172.08654941161589</v>
       </c>
       <c r="AI39" s="2">
         <v>36585</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3782,7 +3803,7 @@
         <v>27.4</v>
       </c>
       <c r="M40">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N40">
         <v>24.2</v>
@@ -3818,16 +3839,16 @@
         <v>131.9751992914083</v>
       </c>
       <c r="AG40">
-        <v>1.961280526382387</v>
+        <v>1.9612805263823869</v>
       </c>
       <c r="AH40">
-        <v>157.2820447931165</v>
+        <v>157.28204479311651</v>
       </c>
       <c r="AI40" s="2">
         <v>36616</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3871,7 +3892,7 @@
         <v>24.9</v>
       </c>
       <c r="O41">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P41">
         <v>23</v>
@@ -3901,7 +3922,7 @@
         <v>127.1036315323295</v>
       </c>
       <c r="AG41">
-        <v>2.720485891433633</v>
+        <v>2.7204858914336332</v>
       </c>
       <c r="AH41">
         <v>141.3387321270404</v>
@@ -3910,7 +3931,7 @@
         <v>36646</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3984,7 +4005,7 @@
         <v>205.2385170188536</v>
       </c>
       <c r="AG42">
-        <v>6.579779830444135</v>
+        <v>6.5797798304441351</v>
       </c>
       <c r="AH42">
         <v>127.4832342148551</v>
@@ -3993,7 +4014,7 @@
         <v>36677</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4022,7 +4043,7 @@
         <v>199.4</v>
       </c>
       <c r="J43">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K43">
         <v>19</v>
@@ -4037,7 +4058,7 @@
         <v>24.7</v>
       </c>
       <c r="O43">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="P43">
         <v>23.3</v>
@@ -4064,7 +4085,7 @@
         <v>1349.6</v>
       </c>
       <c r="AF43">
-        <v>248.1336201442491</v>
+        <v>248.13362014424911</v>
       </c>
       <c r="AG43">
         <v>5.694040237884348</v>
@@ -4076,7 +4097,7 @@
         <v>36707</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4147,19 +4168,19 @@
         <v>1349.6</v>
       </c>
       <c r="AF44">
-        <v>129.3812476274832</v>
+        <v>129.38124762748319</v>
       </c>
       <c r="AG44">
-        <v>8.098190560546628</v>
+        <v>8.0981905605466284</v>
       </c>
       <c r="AH44">
-        <v>117.0441604454005</v>
+        <v>117.04416044540049</v>
       </c>
       <c r="AI44" s="2">
         <v>36738</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4188,7 +4209,7 @@
         <v>297.5</v>
       </c>
       <c r="J45">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="K45">
         <v>15</v>
@@ -4230,19 +4251,19 @@
         <v>1349.6</v>
       </c>
       <c r="AF45">
-        <v>135.0120207516133</v>
+        <v>135.01202075161331</v>
       </c>
       <c r="AG45">
         <v>14.61470327723649</v>
       </c>
       <c r="AH45">
-        <v>116.5380235353663</v>
+        <v>116.53802353536631</v>
       </c>
       <c r="AI45" s="2">
         <v>36769</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4265,7 +4286,7 @@
         <v>2020</v>
       </c>
       <c r="H46">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I46">
         <v>231.6</v>
@@ -4325,7 +4346,7 @@
         <v>36799</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4396,19 +4417,19 @@
         <v>1349.6</v>
       </c>
       <c r="AF47">
-        <v>168.8599266101481</v>
+        <v>168.85992661014811</v>
       </c>
       <c r="AG47">
-        <v>16.51271668986461</v>
+        <v>16.512716689864611</v>
       </c>
       <c r="AH47">
-        <v>136.4038972542073</v>
+        <v>136.40389725420729</v>
       </c>
       <c r="AI47" s="2">
         <v>36830</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4431,10 +4452,10 @@
         <v>2392</v>
       </c>
       <c r="H48">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="I48">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="J48">
         <v>41.6</v>
@@ -4479,19 +4500,19 @@
         <v>1349.6</v>
       </c>
       <c r="AF48">
-        <v>159.8759964570417</v>
+        <v>159.87599645704171</v>
       </c>
       <c r="AG48">
-        <v>9.363532835632039</v>
+        <v>9.3635328356320393</v>
       </c>
       <c r="AH48">
-        <v>151.3349361002151</v>
+        <v>151.33493610021509</v>
       </c>
       <c r="AI48" s="2">
         <v>36860</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4565,7 +4586,7 @@
         <v>105.0234088320891</v>
       </c>
       <c r="AG49">
-        <v>6.326711375427053</v>
+        <v>6.3267113754270534</v>
       </c>
       <c r="AH49">
         <v>130.5833227888144</v>
@@ -4574,7 +4595,7 @@
         <v>36891</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4645,7 +4666,7 @@
         <v>1355.2</v>
       </c>
       <c r="AF50">
-        <v>159.0252480844115</v>
+        <v>159.02524808441149</v>
       </c>
       <c r="AG50">
         <v>120.6506720261274</v>
@@ -4657,7 +4678,7 @@
         <v>36922</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4680,7 +4701,7 @@
         <v>124</v>
       </c>
       <c r="H51">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4725,19 +4746,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF51">
-        <v>182.451953272202</v>
+        <v>182.45195327220199</v>
       </c>
       <c r="AG51">
-        <v>110.2876523049868</v>
+        <v>110.28765230498681</v>
       </c>
       <c r="AH51">
-        <v>7.787966335887451</v>
+        <v>7.7879663358874511</v>
       </c>
       <c r="AI51" s="2">
         <v>36950</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4766,7 +4787,7 @@
         <v>47.9</v>
       </c>
       <c r="J52">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -4814,13 +4835,13 @@
         <v>112.3602562492149</v>
       </c>
       <c r="AH52">
-        <v>4.898882049993719</v>
+        <v>4.8988820499937189</v>
       </c>
       <c r="AI52" s="2">
         <v>36981</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4843,10 +4864,10 @@
         <v>78</v>
       </c>
       <c r="H53">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="I53">
-        <v>146.2</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="J53">
         <v>64.5</v>
@@ -4858,13 +4879,13 @@
         <v>28.8</v>
       </c>
       <c r="M53">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="N53">
         <v>25.5</v>
       </c>
       <c r="O53">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="P53">
         <v>22.8</v>
@@ -4891,19 +4912,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF53">
-        <v>171.3352593895239</v>
+        <v>171.33525938952391</v>
       </c>
       <c r="AG53">
         <v>122.7232759703555</v>
       </c>
       <c r="AH53">
-        <v>4.898882049993719</v>
+        <v>4.8988820499937189</v>
       </c>
       <c r="AI53" s="2">
         <v>37011</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4974,19 +4995,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF54">
-        <v>137.7339530209773</v>
+        <v>137.73395302097731</v>
       </c>
       <c r="AG54">
         <v>117.3847506594649</v>
       </c>
       <c r="AH54">
-        <v>13.56613490767491</v>
+        <v>13.566134907674909</v>
       </c>
       <c r="AI54" s="2">
         <v>37042</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5030,7 +5051,7 @@
         <v>24.5</v>
       </c>
       <c r="O55">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P55">
         <v>23.1</v>
@@ -5057,19 +5078,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF55">
-        <v>150.9232508478834</v>
+        <v>150.92325084788339</v>
       </c>
       <c r="AG55">
         <v>110.5388770254993</v>
       </c>
       <c r="AH55">
-        <v>22.92425574676548</v>
+        <v>22.924255746765478</v>
       </c>
       <c r="AI55" s="2">
         <v>37072</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5092,7 +5113,7 @@
         <v>597</v>
       </c>
       <c r="H56">
-        <v>88.09999999999999</v>
+        <v>88.1</v>
       </c>
       <c r="I56">
         <v>164.1</v>
@@ -5152,7 +5173,7 @@
         <v>37103</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5196,7 +5217,7 @@
         <v>25</v>
       </c>
       <c r="O57">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P57">
         <v>23.6</v>
@@ -5223,19 +5244,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF57">
-        <v>158.8996357241552</v>
+        <v>158.89963572415519</v>
       </c>
       <c r="AG57">
-        <v>118.452455721643</v>
+        <v>118.45245572164301</v>
       </c>
       <c r="AH57">
-        <v>54.76698907172466</v>
+        <v>54.766989071724659</v>
       </c>
       <c r="AI57" s="2">
         <v>37134</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5264,7 +5285,7 @@
         <v>207.3</v>
       </c>
       <c r="J58">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="K58">
         <v>20</v>
@@ -5279,7 +5300,7 @@
         <v>25.7</v>
       </c>
       <c r="O58">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P58">
         <v>22.8</v>
@@ -5306,19 +5327,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF58">
-        <v>157.8947368421053</v>
+        <v>157.89473684210529</v>
       </c>
       <c r="AG58">
         <v>104.6350960934556</v>
       </c>
       <c r="AH58">
-        <v>48.17234015827157</v>
+        <v>48.172340158271567</v>
       </c>
       <c r="AI58" s="2">
         <v>37164</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5389,19 +5410,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF59">
-        <v>153.9379474940334</v>
+        <v>153.93794749403341</v>
       </c>
       <c r="AG59">
-        <v>99.5477955030775</v>
+        <v>99.547795503077495</v>
       </c>
       <c r="AH59">
-        <v>36.61600301469664</v>
+        <v>36.616003014696638</v>
       </c>
       <c r="AI59" s="2">
         <v>37195</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5424,7 +5445,7 @@
         <v>353</v>
       </c>
       <c r="H60">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="I60">
         <v>27.3</v>
@@ -5472,19 +5493,19 @@
         <v>1355.2</v>
       </c>
       <c r="AF60">
-        <v>139.9321693254616</v>
+        <v>139.93216932546159</v>
       </c>
       <c r="AG60">
-        <v>125.2355231754805</v>
+        <v>125.23552317548049</v>
       </c>
       <c r="AH60">
-        <v>22.17058158522799</v>
+        <v>22.170581585227989</v>
       </c>
       <c r="AI60" s="2">
         <v>37225</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5510,7 +5531,7 @@
         <v>100.2</v>
       </c>
       <c r="I61">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J61">
         <v>11.2</v>
@@ -5555,7 +5576,7 @@
         <v>1355.2</v>
       </c>
       <c r="AF61">
-        <v>159.0880542645396</v>
+        <v>159.08805426453961</v>
       </c>
       <c r="AG61">
         <v>120.6506720261274</v>
@@ -5567,7 +5588,7 @@
         <v>37256</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5611,7 +5632,7 @@
         <v>21.8</v>
       </c>
       <c r="O62">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="P62">
         <v>19.3</v>
@@ -5638,19 +5659,19 @@
         <v>1360.4</v>
       </c>
       <c r="AF62">
-        <v>204.0536326785158</v>
+        <v>204.05363267851581</v>
       </c>
       <c r="AG62">
-        <v>3.429996881821017</v>
+        <v>3.4299968818210171</v>
       </c>
       <c r="AH62">
-        <v>162.956033676333</v>
+        <v>162.95603367633299</v>
       </c>
       <c r="AI62" s="2">
         <v>37287</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5733,7 +5754,7 @@
         <v>37315</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5804,19 +5825,19 @@
         <v>1360.4</v>
       </c>
       <c r="AF64">
-        <v>237.3557842220143</v>
+        <v>237.35578422201431</v>
       </c>
       <c r="AG64">
         <v>1.184908013719987</v>
       </c>
       <c r="AH64">
-        <v>169.3171188026193</v>
+        <v>169.31711880261929</v>
       </c>
       <c r="AI64" s="2">
         <v>37346</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5893,13 +5914,13 @@
         <v>1.43436233239788</v>
       </c>
       <c r="AH65">
-        <v>179.0458372310571</v>
+        <v>179.04583723105711</v>
       </c>
       <c r="AI65" s="2">
         <v>37376</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5970,19 +5991,19 @@
         <v>1360.4</v>
       </c>
       <c r="AF66">
-        <v>176.5512940442781</v>
+        <v>176.55129404427811</v>
       </c>
       <c r="AG66">
-        <v>4.178359837854693</v>
+        <v>4.1783598378546927</v>
       </c>
       <c r="AH66">
-        <v>163.2678515746804</v>
+        <v>163.26785157468041</v>
       </c>
       <c r="AI66" s="2">
         <v>37407</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6026,7 +6047,7 @@
         <v>25.4</v>
       </c>
       <c r="O67">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P67">
         <v>23.2</v>
@@ -6056,16 +6077,16 @@
         <v>166.0742126598067</v>
       </c>
       <c r="AG67">
-        <v>3.866541939507328</v>
+        <v>3.8665419395073282</v>
       </c>
       <c r="AH67">
-        <v>138.696601184908</v>
+        <v>138.69660118490799</v>
       </c>
       <c r="AI67" s="2">
         <v>37437</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6091,7 +6112,7 @@
         <v>89.8</v>
       </c>
       <c r="I68">
-        <v>147.3</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="J68">
         <v>31</v>
@@ -6109,7 +6130,7 @@
         <v>25.2</v>
       </c>
       <c r="O68">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P68">
         <v>22.7</v>
@@ -6148,7 +6169,7 @@
         <v>37468</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6219,19 +6240,19 @@
         <v>1360.4</v>
       </c>
       <c r="AF69">
-        <v>170.4396632366698</v>
+        <v>170.43966323666979</v>
       </c>
       <c r="AG69">
-        <v>7.670720299345183</v>
+        <v>7.6707202993451826</v>
       </c>
       <c r="AH69">
-        <v>138.821328344247</v>
+        <v>138.82132834424701</v>
       </c>
       <c r="AI69" s="2">
         <v>37499</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6257,7 +6278,7 @@
         <v>80.3</v>
       </c>
       <c r="I70">
-        <v>154.3</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="J70">
         <v>29</v>
@@ -6305,16 +6326,16 @@
         <v>176.4889304646087</v>
       </c>
       <c r="AG70">
-        <v>16.27689429373246</v>
+        <v>16.276894293732461</v>
       </c>
       <c r="AH70">
-        <v>135.9526036794512</v>
+        <v>135.95260367945119</v>
       </c>
       <c r="AI70" s="2">
         <v>37529</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6385,19 +6406,19 @@
         <v>1360.4</v>
       </c>
       <c r="AF71">
-        <v>203.3676333021515</v>
+        <v>203.36763330215149</v>
       </c>
       <c r="AG71">
-        <v>21.20361708762083</v>
+        <v>21.203617087620831</v>
       </c>
       <c r="AH71">
-        <v>125.3507951356408</v>
+        <v>125.35079513564079</v>
       </c>
       <c r="AI71" s="2">
         <v>37560</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6423,7 +6444,7 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="J72">
         <v>31</v>
@@ -6468,19 +6489,19 @@
         <v>1360.4</v>
       </c>
       <c r="AF72">
-        <v>214.1565325849704</v>
+        <v>214.15653258497039</v>
       </c>
       <c r="AG72">
-        <v>13.4081696289367</v>
+        <v>13.408169628936699</v>
       </c>
       <c r="AH72">
-        <v>130.5893358278765</v>
+        <v>130.58933582787651</v>
       </c>
       <c r="AI72" s="2">
         <v>37590</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6506,7 +6527,7 @@
         <v>68</v>
       </c>
       <c r="I73">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="J73">
         <v>27</v>
@@ -6551,10 +6572,10 @@
         <v>1360.4</v>
       </c>
       <c r="AF73">
-        <v>186.7165575304022</v>
+        <v>186.71655753040221</v>
       </c>
       <c r="AG73">
-        <v>8.980355472404115</v>
+        <v>8.9803554724041152</v>
       </c>
       <c r="AH73">
         <v>144.7458684128469</v>
@@ -6563,7 +6584,7 @@
         <v>37621</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6586,7 +6607,7 @@
         <v>2255</v>
       </c>
       <c r="H74">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="I74">
         <v>1.6</v>
@@ -6610,7 +6631,7 @@
         <v>31</v>
       </c>
       <c r="P74">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q74">
         <v>81</v>
@@ -6634,19 +6655,19 @@
         <v>1365</v>
       </c>
       <c r="AF74">
-        <v>226.7236573127672</v>
+        <v>226.72365731276719</v>
       </c>
       <c r="AG74">
-        <v>6.999938053645543</v>
+        <v>6.9999380536455433</v>
       </c>
       <c r="AH74">
-        <v>139.6890293006257</v>
+        <v>139.68902930062569</v>
       </c>
       <c r="AI74" s="2">
         <v>37652</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6669,7 +6690,7 @@
         <v>2494</v>
       </c>
       <c r="H75">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6717,19 +6738,19 @@
         <v>1365</v>
       </c>
       <c r="AF75">
-        <v>223.9360713622003</v>
+        <v>223.93607136220029</v>
       </c>
       <c r="AG75">
-        <v>4.398191166449855</v>
+        <v>4.3981911664498554</v>
       </c>
       <c r="AH75">
-        <v>154.4942080158583</v>
+        <v>154.49420801585831</v>
       </c>
       <c r="AI75" s="2">
         <v>37680</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6800,7 +6821,7 @@
         <v>1365</v>
       </c>
       <c r="AF76">
-        <v>201.6353837576659</v>
+        <v>201.63538375766589</v>
       </c>
       <c r="AG76">
         <v>5.637118255590658</v>
@@ -6812,7 +6833,7 @@
         <v>37711</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6883,16 +6904,16 @@
         <v>211.4848541163353</v>
       </c>
       <c r="AG77">
-        <v>10.09725577649755</v>
+        <v>10.097255776497549</v>
       </c>
       <c r="AH77">
-        <v>186.3346342067769</v>
+        <v>186.33463420677691</v>
       </c>
       <c r="AI77" s="2">
         <v>37741</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6930,7 +6951,7 @@
         <v>28</v>
       </c>
       <c r="M78">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N78">
         <v>25.4</v>
@@ -6963,19 +6984,19 @@
         <v>1365</v>
       </c>
       <c r="AF78">
-        <v>221.5821098928328</v>
+        <v>221.58210989283279</v>
       </c>
       <c r="AG78">
-        <v>9.353899523013071</v>
+        <v>9.3538995230130713</v>
       </c>
       <c r="AH78">
-        <v>152.4499783187759</v>
+        <v>152.44997831877589</v>
       </c>
       <c r="AI78" s="2">
         <v>37772</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6998,7 +7019,7 @@
         <v>1909</v>
       </c>
       <c r="H79">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I79">
         <v>114.2</v>
@@ -7052,13 +7073,13 @@
         <v>12.07953911912284</v>
       </c>
       <c r="AH79">
-        <v>118.2555906584898</v>
+        <v>118.25559065848979</v>
       </c>
       <c r="AI79" s="2">
         <v>37802</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7129,19 +7150,19 @@
         <v>1365</v>
       </c>
       <c r="AF80">
-        <v>233.1041318218423</v>
+        <v>233.10413182184229</v>
       </c>
       <c r="AG80">
-        <v>14.12376881620517</v>
+        <v>14.123768816205169</v>
       </c>
       <c r="AH80">
-        <v>148.9190361147247</v>
+        <v>148.91903611472469</v>
       </c>
       <c r="AI80" s="2">
         <v>37833</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7185,7 +7206,7 @@
         <v>25.4</v>
       </c>
       <c r="O81">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P81">
         <v>23.2</v>
@@ -7212,19 +7233,19 @@
         <v>1365</v>
       </c>
       <c r="AF81">
-        <v>199.9008858328687</v>
+        <v>199.90088583286871</v>
       </c>
       <c r="AG81">
         <v>20.81397509756551</v>
       </c>
       <c r="AH81">
-        <v>135.1049990708047</v>
+        <v>135.10499907080469</v>
       </c>
       <c r="AI81" s="2">
         <v>37864</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7298,7 +7319,7 @@
         <v>170.2285820479465</v>
       </c>
       <c r="AG82">
-        <v>28.55726940469554</v>
+        <v>28.557269404695539</v>
       </c>
       <c r="AH82">
         <v>128.2289537260732</v>
@@ -7307,7 +7328,7 @@
         <v>37894</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7378,19 +7399,19 @@
         <v>1365</v>
       </c>
       <c r="AF83">
-        <v>198.3522269714427</v>
+        <v>198.35222697144269</v>
       </c>
       <c r="AG83">
-        <v>39.27398872576349</v>
+        <v>39.273988725763488</v>
       </c>
       <c r="AH83">
-        <v>112.1229015672428</v>
+        <v>112.12290156724281</v>
       </c>
       <c r="AI83" s="2">
         <v>37925</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7434,7 +7455,7 @@
         <v>24.9</v>
       </c>
       <c r="O84">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="P84">
         <v>22.5</v>
@@ -7464,7 +7485,7 @@
         <v>174.4409341510252</v>
       </c>
       <c r="AG84">
-        <v>32.89351421668835</v>
+        <v>32.893514216688352</v>
       </c>
       <c r="AH84">
         <v>110.0167255157034</v>
@@ -7473,7 +7494,7 @@
         <v>37955</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7544,19 +7565,19 @@
         <v>1365</v>
       </c>
       <c r="AF85">
-        <v>210.8653905717649</v>
+        <v>210.86539057176489</v>
       </c>
       <c r="AG85">
-        <v>26.26525428978504</v>
+        <v>26.265254289785041</v>
       </c>
       <c r="AH85">
-        <v>147.4323236077557</v>
+        <v>147.43232360775571</v>
       </c>
       <c r="AI85" s="2">
         <v>37986</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7627,10 +7648,10 @@
         <v>1370.8</v>
       </c>
       <c r="AF86">
-        <v>141.2148038854052</v>
+        <v>141.21480388540519</v>
       </c>
       <c r="AG86">
-        <v>12.84888724947744</v>
+        <v>12.848887249477441</v>
       </c>
       <c r="AH86">
         <v>184.1878765523177</v>
@@ -7639,7 +7660,7 @@
         <v>38017</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7710,19 +7731,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF87">
-        <v>174.2284519857371</v>
+        <v>174.22845198573711</v>
       </c>
       <c r="AG87">
-        <v>9.098733554653879</v>
+        <v>9.0987335546538795</v>
       </c>
       <c r="AH87">
-        <v>144.3501782859954</v>
+        <v>144.35017828599541</v>
       </c>
       <c r="AI87" s="2">
         <v>38046</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7760,7 +7781,7 @@
         <v>27.7</v>
       </c>
       <c r="M88">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N88">
         <v>24.3</v>
@@ -7793,19 +7814,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF88">
-        <v>152.8956104758392</v>
+        <v>152.89561047583919</v>
       </c>
       <c r="AG88">
-        <v>16.96790852084102</v>
+        <v>16.967908520841021</v>
       </c>
       <c r="AH88">
-        <v>132.4849379072913</v>
+        <v>132.48493790729131</v>
       </c>
       <c r="AI88" s="2">
         <v>38077</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7843,7 +7864,7 @@
         <v>29.3</v>
       </c>
       <c r="M89">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="N89">
         <v>25.9</v>
@@ -7879,16 +7900,16 @@
         <v>131.1324234599779</v>
       </c>
       <c r="AG89">
-        <v>27.29620066396164</v>
+        <v>27.296200663961638</v>
       </c>
       <c r="AH89">
-        <v>132.607893766138</v>
+        <v>132.60789376613801</v>
       </c>
       <c r="AI89" s="2">
         <v>38107</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7926,7 +7947,7 @@
         <v>28.4</v>
       </c>
       <c r="M90">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N90">
         <v>25.6</v>
@@ -7959,19 +7980,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF90">
-        <v>186.4010820115579</v>
+        <v>186.40108201155789</v>
       </c>
       <c r="AG90">
         <v>17.7671216033444</v>
       </c>
       <c r="AH90">
-        <v>139.554899790975</v>
+        <v>139.55489979097501</v>
       </c>
       <c r="AI90" s="2">
         <v>38138</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8015,7 +8036,7 @@
         <v>24.7</v>
       </c>
       <c r="O91">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P91">
         <v>22.1</v>
@@ -8042,19 +8063,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF91">
-        <v>146.3789499569654</v>
+        <v>146.37894995696541</v>
       </c>
       <c r="AG91">
-        <v>12.60297553178409</v>
+        <v>12.602975531784089</v>
       </c>
       <c r="AH91">
-        <v>133.4071068486413</v>
+        <v>133.40710684864129</v>
       </c>
       <c r="AI91" s="2">
         <v>38168</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8098,7 +8119,7 @@
         <v>24.9</v>
       </c>
       <c r="O92">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P92">
         <v>23.2</v>
@@ -8125,19 +8146,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF92">
-        <v>98.05729743022256</v>
+        <v>98.057297430222562</v>
       </c>
       <c r="AG92">
         <v>24.59117176933481</v>
       </c>
       <c r="AH92">
-        <v>146.1945161686955</v>
+        <v>146.19451616869549</v>
       </c>
       <c r="AI92" s="2">
         <v>38199</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8208,7 +8229,7 @@
         <v>1370.8</v>
       </c>
       <c r="AF93">
-        <v>147.9773761219722</v>
+        <v>147.97737612197221</v>
       </c>
       <c r="AG93">
         <v>24.83708348702816</v>
@@ -8220,7 +8241,7 @@
         <v>38230</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8243,7 +8264,7 @@
         <v>1585</v>
       </c>
       <c r="H94">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I94">
         <v>148.5</v>
@@ -8291,19 +8312,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF94">
-        <v>164.6993729251199</v>
+        <v>164.69937292511989</v>
       </c>
       <c r="AG94">
-        <v>35.47276527726546</v>
+        <v>35.472765277265459</v>
       </c>
       <c r="AH94">
-        <v>97.44251813598919</v>
+        <v>97.442518135989189</v>
       </c>
       <c r="AI94" s="2">
         <v>38260</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8347,7 +8368,7 @@
         <v>24.6</v>
       </c>
       <c r="O95">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="P95">
         <v>22.9</v>
@@ -8374,19 +8395,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF95">
-        <v>174.6587974917005</v>
+        <v>174.65879749170051</v>
       </c>
       <c r="AG95">
-        <v>33.99729497110538</v>
+        <v>33.997294971105383</v>
       </c>
       <c r="AH95">
-        <v>82.56485921554163</v>
+        <v>82.564859215541631</v>
       </c>
       <c r="AI95" s="2">
         <v>38291</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8457,19 +8478,19 @@
         <v>1370.8</v>
       </c>
       <c r="AF96">
-        <v>161.8099102422231</v>
+        <v>161.80991024222311</v>
       </c>
       <c r="AG96">
-        <v>32.58330259436863</v>
+        <v>32.583302594368632</v>
       </c>
       <c r="AH96">
-        <v>99.28685601868929</v>
+        <v>99.286856018689292</v>
       </c>
       <c r="AI96" s="2">
         <v>38321</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8492,7 +8513,7 @@
         <v>1980</v>
       </c>
       <c r="H97">
-        <v>74.59999999999999</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="I97">
         <v>26.7</v>
@@ -8540,10 +8561,10 @@
         <v>1370.8</v>
       </c>
       <c r="AF97">
-        <v>124.0009836468708</v>
+        <v>124.00098364687079</v>
       </c>
       <c r="AG97">
-        <v>29.14053854666175</v>
+        <v>29.140538546661752</v>
       </c>
       <c r="AH97">
         <v>121.7263002582073</v>
@@ -8552,7 +8573,7 @@
         <v>38352</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8587,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>24.90322580645161</v>
+        <v>24.903225806451609</v>
       </c>
       <c r="M98">
         <v>29.63225806451613</v>
       </c>
       <c r="N98">
-        <v>21.68709677419355</v>
+        <v>21.687096774193549</v>
       </c>
       <c r="O98">
         <v>31.8</v>
@@ -8602,7 +8623,7 @@
         <v>19.2</v>
       </c>
       <c r="Q98">
-        <v>81.38709677419355</v>
+        <v>81.387096774193552</v>
       </c>
       <c r="R98">
         <v>54</v>
@@ -8617,7 +8638,7 @@
         <v>840.7</v>
       </c>
       <c r="V98">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W98">
         <v>1376.9</v>
@@ -8632,13 +8653,13 @@
         <v>1.585849344312291</v>
       </c>
       <c r="AH98">
-        <v>45.1357121073498</v>
+        <v>45.135712107349804</v>
       </c>
       <c r="AI98" s="2">
         <v>38383</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8679,16 +8700,16 @@
         <v>31.98571428571428</v>
       </c>
       <c r="N99">
-        <v>23.03928571428571</v>
+        <v>23.039285714285711</v>
       </c>
       <c r="O99">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P99">
         <v>21.2</v>
       </c>
       <c r="Q99">
-        <v>81.96428571428571</v>
+        <v>81.964285714285708</v>
       </c>
       <c r="R99">
         <v>49</v>
@@ -8703,7 +8724,7 @@
         <v>840.7</v>
       </c>
       <c r="V99">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W99">
         <v>1376.9</v>
@@ -8712,10 +8733,10 @@
         <v>1.98</v>
       </c>
       <c r="AF99">
-        <v>189.2040256175663</v>
+        <v>189.20402561756629</v>
       </c>
       <c r="AG99">
-        <v>6.160414760597743</v>
+        <v>6.1604147605977433</v>
       </c>
       <c r="AH99">
         <v>126.9289417505337</v>
@@ -8724,7 +8745,7 @@
         <v>38411</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8759,28 +8780,28 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>27.52258064516129</v>
+        <v>27.522580645161291</v>
       </c>
       <c r="M100">
-        <v>32.48387096774194</v>
+        <v>32.483870967741943</v>
       </c>
       <c r="N100">
         <v>24.0741935483871</v>
       </c>
       <c r="O100">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="P100">
         <v>19</v>
       </c>
       <c r="Q100">
-        <v>80.80645161290323</v>
+        <v>80.806451612903231</v>
       </c>
       <c r="R100">
         <v>46</v>
       </c>
       <c r="S100">
-        <v>265.1</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="T100">
         <v>798.8</v>
@@ -8789,7 +8810,7 @@
         <v>840.7</v>
       </c>
       <c r="V100">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W100">
         <v>1376.9</v>
@@ -8798,7 +8819,7 @@
         <v>1.98</v>
       </c>
       <c r="AF100">
-        <v>204.3305885940836</v>
+        <v>204.33058859408359</v>
       </c>
       <c r="AG100">
         <v>12.44281793229643</v>
@@ -8810,7 +8831,7 @@
         <v>38442</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8848,10 +8869,10 @@
         <v>29.02666666666666</v>
       </c>
       <c r="M101">
-        <v>34.02</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="N101">
-        <v>25.64666666666666</v>
+        <v>25.646666666666661</v>
       </c>
       <c r="O101">
         <v>35.1</v>
@@ -8875,7 +8896,7 @@
         <v>840.7</v>
       </c>
       <c r="V101">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W101">
         <v>1376.9</v>
@@ -8884,19 +8905,19 @@
         <v>1.98</v>
       </c>
       <c r="AF101">
-        <v>129.1247331503507</v>
+        <v>129.12473315035069</v>
       </c>
       <c r="AG101">
-        <v>16.59042390972858</v>
+        <v>16.590423909728582</v>
       </c>
       <c r="AH101">
-        <v>126.3799939005794</v>
+        <v>126.37999390057939</v>
       </c>
       <c r="AI101" s="2">
         <v>38472</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8934,19 +8955,19 @@
         <v>28.91935483870968</v>
       </c>
       <c r="M102">
-        <v>34.27741935483871</v>
+        <v>34.277419354838713</v>
       </c>
       <c r="N102">
-        <v>25.74516129032258</v>
+        <v>25.745161290322581</v>
       </c>
       <c r="O102">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="P102">
         <v>23.6</v>
       </c>
       <c r="Q102">
-        <v>87.54838709677419</v>
+        <v>87.548387096774192</v>
       </c>
       <c r="R102">
         <v>50</v>
@@ -8961,7 +8982,7 @@
         <v>840.7</v>
       </c>
       <c r="V102">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W102">
         <v>1376.9</v>
@@ -8970,10 +8991,10 @@
         <v>1.98</v>
       </c>
       <c r="AF102">
-        <v>128.1488258615431</v>
+        <v>128.14882586154309</v>
       </c>
       <c r="AG102">
-        <v>18.48124428179323</v>
+        <v>18.481244281793231</v>
       </c>
       <c r="AH102">
         <v>116.6209210125038</v>
@@ -8982,7 +9003,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9017,7 +9038,7 @@
         <v>19</v>
       </c>
       <c r="L103">
-        <v>28.08333333333333</v>
+        <v>28.083333333333329</v>
       </c>
       <c r="M103">
         <v>32.74</v>
@@ -9047,7 +9068,7 @@
         <v>840.7</v>
       </c>
       <c r="V103">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W103">
         <v>1376.9</v>
@@ -9056,10 +9077,10 @@
         <v>1.98</v>
       </c>
       <c r="AF103">
-        <v>141.0795974382434</v>
+        <v>141.07959743824341</v>
       </c>
       <c r="AG103">
-        <v>17.07837755413236</v>
+        <v>17.078377554132359</v>
       </c>
       <c r="AH103">
         <v>129.7956694114059</v>
@@ -9068,7 +9089,7 @@
         <v>38533</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9118,13 +9139,13 @@
         <v>22.8</v>
       </c>
       <c r="Q104">
-        <v>92.03225806451613</v>
+        <v>92.032258064516128</v>
       </c>
       <c r="R104">
         <v>62</v>
       </c>
       <c r="S104">
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="T104">
         <v>798.8</v>
@@ -9133,7 +9154,7 @@
         <v>840.7</v>
       </c>
       <c r="V104">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W104">
         <v>1376.9</v>
@@ -9154,7 +9175,7 @@
         <v>38564</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9177,7 +9198,7 @@
         <v>1809</v>
       </c>
       <c r="H105">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="I105">
         <v>173.2</v>
@@ -9189,13 +9210,13 @@
         <v>17</v>
       </c>
       <c r="L105">
-        <v>27.55483870967742</v>
+        <v>27.554838709677419</v>
       </c>
       <c r="M105">
         <v>31.86774193548387</v>
       </c>
       <c r="N105">
-        <v>25.00967741935484</v>
+        <v>25.009677419354841</v>
       </c>
       <c r="O105">
         <v>33.4</v>
@@ -9204,7 +9225,7 @@
         <v>23</v>
       </c>
       <c r="Q105">
-        <v>88.2258064516129</v>
+        <v>88.225806451612897</v>
       </c>
       <c r="R105">
         <v>62</v>
@@ -9219,7 +9240,7 @@
         <v>840.7</v>
       </c>
       <c r="V105">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W105">
         <v>1376.9</v>
@@ -9228,10 +9249,10 @@
         <v>1.98</v>
       </c>
       <c r="AF105">
-        <v>159.2558706922842</v>
+        <v>159.25587069228419</v>
       </c>
       <c r="AG105">
-        <v>49.10033546813053</v>
+        <v>49.100335468130531</v>
       </c>
       <c r="AH105">
         <v>110.3385178408051</v>
@@ -9240,7 +9261,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9275,7 +9296,7 @@
         <v>19</v>
       </c>
       <c r="L106">
-        <v>27.44333333333334</v>
+        <v>27.443333333333339</v>
       </c>
       <c r="M106">
         <v>30.95</v>
@@ -9290,13 +9311,13 @@
         <v>23.3</v>
       </c>
       <c r="Q106">
-        <v>90.26666666666667</v>
+        <v>90.266666666666666</v>
       </c>
       <c r="R106">
         <v>58</v>
       </c>
       <c r="S106">
-        <v>151.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="T106">
         <v>798.8</v>
@@ -9305,7 +9326,7 @@
         <v>840.7</v>
       </c>
       <c r="V106">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W106">
         <v>1376.9</v>
@@ -9317,7 +9338,7 @@
         <v>160.4147605977432</v>
       </c>
       <c r="AG106">
-        <v>87.95364440378164</v>
+        <v>87.953644403781638</v>
       </c>
       <c r="AH106">
         <v>105.154010369015</v>
@@ -9326,7 +9347,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9361,10 +9382,10 @@
         <v>24</v>
       </c>
       <c r="L107">
-        <v>27.59677419354838</v>
+        <v>27.596774193548381</v>
       </c>
       <c r="M107">
-        <v>31.03870967741936</v>
+        <v>31.038709677419359</v>
       </c>
       <c r="N107">
         <v>24.93225806451613</v>
@@ -9376,7 +9397,7 @@
         <v>22.4</v>
       </c>
       <c r="Q107">
-        <v>88.74193548387096</v>
+        <v>88.741935483870961</v>
       </c>
       <c r="R107">
         <v>61</v>
@@ -9391,7 +9412,7 @@
         <v>840.7</v>
       </c>
       <c r="V107">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W107">
         <v>1376.9</v>
@@ -9403,7 +9424,7 @@
         <v>188.1061299176578</v>
       </c>
       <c r="AG107">
-        <v>97.77371149740775</v>
+        <v>97.773711497407746</v>
       </c>
       <c r="AH107">
         <v>106.0079292467216</v>
@@ -9412,7 +9433,7 @@
         <v>38656</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9438,10 +9459,10 @@
         <v>68.5</v>
       </c>
       <c r="I108">
-        <v>151.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="J108">
-        <v>151.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="K108">
         <v>14</v>
@@ -9450,19 +9471,19 @@
         <v>27.12</v>
       </c>
       <c r="M108">
-        <v>30.51666666666667</v>
+        <v>30.516666666666669</v>
       </c>
       <c r="N108">
         <v>24.76</v>
       </c>
       <c r="O108">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P108">
         <v>22.7</v>
       </c>
       <c r="Q108">
-        <v>88.26666666666667</v>
+        <v>88.266666666666666</v>
       </c>
       <c r="R108">
         <v>58</v>
@@ -9477,7 +9498,7 @@
         <v>840.7</v>
       </c>
       <c r="V108">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W108">
         <v>1376.9</v>
@@ -9486,10 +9507,10 @@
         <v>1.98</v>
       </c>
       <c r="AF108">
-        <v>269.8383653552912</v>
+        <v>269.83836535529122</v>
       </c>
       <c r="AG108">
-        <v>68.92345227203415</v>
+        <v>68.923452272034154</v>
       </c>
       <c r="AH108">
         <v>122.5983531564501</v>
@@ -9498,7 +9519,7 @@
         <v>38686</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9521,7 +9542,7 @@
         <v>430</v>
       </c>
       <c r="H109">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="I109">
         <v>98.8</v>
@@ -9536,10 +9557,10 @@
         <v>25.58064516129032</v>
       </c>
       <c r="M109">
-        <v>28.82903225806452</v>
+        <v>28.829032258064519</v>
       </c>
       <c r="N109">
-        <v>23.16774193548387</v>
+        <v>23.167741935483871</v>
       </c>
       <c r="O109">
         <v>31</v>
@@ -9548,7 +9569,7 @@
         <v>18.8</v>
       </c>
       <c r="Q109">
-        <v>86.93548387096774</v>
+        <v>86.935483870967744</v>
       </c>
       <c r="R109">
         <v>59</v>
@@ -9563,7 +9584,7 @@
         <v>840.7</v>
       </c>
       <c r="V109">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="W109">
         <v>1376.9</v>
@@ -9575,7 +9596,7 @@
         <v>66.6056724611162</v>
       </c>
       <c r="AG109">
-        <v>5.85544373284538</v>
+        <v>5.8554437328453801</v>
       </c>
       <c r="AH109">
         <v>26.22750838670326</v>
@@ -9584,7 +9605,7 @@
         <v>38717</v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9658,19 +9679,19 @@
         <v>12.1</v>
       </c>
       <c r="AF110">
-        <v>299.0041292203061</v>
+        <v>299.00412922030608</v>
       </c>
       <c r="AG110">
-        <v>16.33470974010202</v>
+        <v>16.334709740102021</v>
       </c>
       <c r="AH110">
-        <v>174.1559387903814</v>
+        <v>174.15593879038141</v>
       </c>
       <c r="AI110" s="2">
         <v>38748</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9744,19 +9765,19 @@
         <v>12.1</v>
       </c>
       <c r="AF111">
-        <v>359.3636142822444</v>
+        <v>359.36361428224438</v>
       </c>
       <c r="AG111">
-        <v>9.472917172698567</v>
+        <v>9.4729171726985673</v>
       </c>
       <c r="AH111">
-        <v>182.5965508865679</v>
+        <v>182.59655088656791</v>
       </c>
       <c r="AI111" s="2">
         <v>38776</v>
       </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9794,7 +9815,7 @@
         <v>27.6</v>
       </c>
       <c r="M112">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N112">
         <v>24.4</v>
@@ -9830,19 +9851,19 @@
         <v>12.1</v>
       </c>
       <c r="AF112">
-        <v>256.133106631042</v>
+        <v>256.13310663104198</v>
       </c>
       <c r="AG112">
-        <v>9.83726014087928</v>
+        <v>9.8372601408792804</v>
       </c>
       <c r="AH112">
-        <v>151.4452271071168</v>
+        <v>151.44522710711681</v>
       </c>
       <c r="AI112" s="2">
         <v>38807</v>
       </c>
     </row>
-    <row r="113" spans="1:35">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9880,7 +9901,7 @@
         <v>28.4</v>
       </c>
       <c r="M113">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N113">
         <v>25.3</v>
@@ -9916,19 +9937,19 @@
         <v>12.1</v>
       </c>
       <c r="AF113">
-        <v>345.5185814913772</v>
+        <v>345.51858149137718</v>
       </c>
       <c r="AG113">
-        <v>10.38377459315035</v>
+        <v>10.383774593150349</v>
       </c>
       <c r="AH113">
-        <v>141.7294146222978</v>
+        <v>141.72941462229781</v>
       </c>
       <c r="AI113" s="2">
         <v>38837</v>
       </c>
     </row>
-    <row r="114" spans="1:35">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9954,7 +9975,7 @@
         <v>51.1</v>
       </c>
       <c r="I114">
-        <v>145.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="J114">
         <v>41</v>
@@ -9966,13 +9987,13 @@
         <v>28.1</v>
       </c>
       <c r="M114">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N114">
         <v>25.3</v>
       </c>
       <c r="O114">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="P114">
         <v>23.5</v>
@@ -10002,19 +10023,19 @@
         <v>12.1</v>
       </c>
       <c r="AF114">
-        <v>290.8671362642701</v>
+        <v>290.86713626427007</v>
       </c>
       <c r="AG114">
         <v>14.63444255525868</v>
       </c>
       <c r="AH114">
-        <v>144.0976439154724</v>
+        <v>144.09764391547239</v>
       </c>
       <c r="AI114" s="2">
         <v>38868</v>
       </c>
     </row>
-    <row r="115" spans="1:35">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10037,7 +10058,7 @@
         <v>2667</v>
       </c>
       <c r="H115">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I115">
         <v>190.4</v>
@@ -10091,7 +10112,7 @@
         <v>250.6072382803012</v>
       </c>
       <c r="AG115">
-        <v>23.80374058780666</v>
+        <v>23.803740587806661</v>
       </c>
       <c r="AH115">
         <v>161.9504493563274</v>
@@ -10100,7 +10121,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="116" spans="1:35">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10174,19 +10195,19 @@
         <v>12.1</v>
       </c>
       <c r="AF116">
-        <v>294.0247753218363</v>
+        <v>294.02477532183627</v>
       </c>
       <c r="AG116">
-        <v>37.46660189458343</v>
+        <v>37.466601894583427</v>
       </c>
       <c r="AH116">
-        <v>141.5472431382074</v>
+        <v>141.54724313820739</v>
       </c>
       <c r="AI116" s="2">
         <v>38929</v>
       </c>
     </row>
-    <row r="117" spans="1:35">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10260,10 +10281,10 @@
         <v>12.1</v>
       </c>
       <c r="AF117">
-        <v>226.3177070682536</v>
+        <v>226.31770706825361</v>
       </c>
       <c r="AG117">
-        <v>46.81807141122177</v>
+        <v>46.818071411221773</v>
       </c>
       <c r="AH117">
         <v>139.6040806412436</v>
@@ -10272,7 +10293,7 @@
         <v>38960</v>
       </c>
     </row>
-    <row r="118" spans="1:35">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10346,10 +10367,10 @@
         <v>12.1</v>
       </c>
       <c r="AF118">
-        <v>332.8880252611125</v>
+        <v>332.88802526111249</v>
       </c>
       <c r="AG118">
-        <v>74.14379402477532</v>
+        <v>74.143794024775318</v>
       </c>
       <c r="AH118">
         <v>128.0058294874909</v>
@@ -10358,7 +10379,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="119" spans="1:35">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10432,7 +10453,7 @@
         <v>12.1</v>
       </c>
       <c r="AF119">
-        <v>402.9025989798397</v>
+        <v>402.90259897983969</v>
       </c>
       <c r="AG119">
         <v>74.62958464901628</v>
@@ -10444,7 +10465,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="120" spans="1:35">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10488,7 +10509,7 @@
         <v>25.8</v>
       </c>
       <c r="O120">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P120">
         <v>25</v>
@@ -10518,19 +10539,19 @@
         <v>12.1</v>
       </c>
       <c r="AF120">
-        <v>410.6145251396648</v>
+        <v>410.61452513966481</v>
       </c>
       <c r="AG120">
-        <v>74.44741316492592</v>
+        <v>74.447413164925919</v>
       </c>
       <c r="AH120">
-        <v>148.8341025018217</v>
+        <v>148.83410250182169</v>
       </c>
       <c r="AI120" s="2">
         <v>39051</v>
       </c>
     </row>
-    <row r="121" spans="1:35">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10574,10 +10595,10 @@
         <v>23.4</v>
       </c>
       <c r="O121">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="P121">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Q121">
         <v>81</v>
@@ -10604,19 +10625,19 @@
         <v>12.1</v>
       </c>
       <c r="AF121">
-        <v>445.6521739130434</v>
+        <v>445.65217391304338</v>
       </c>
       <c r="AG121">
-        <v>63.63857177556473</v>
+        <v>63.638571775564728</v>
       </c>
       <c r="AH121">
-        <v>193.5875637600194</v>
+        <v>193.58756376001941</v>
       </c>
       <c r="AI121" s="2">
         <v>39082</v>
       </c>
     </row>
-    <row r="122" spans="1:35">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10681,7 +10702,7 @@
         <v>847</v>
       </c>
       <c r="V122">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W122">
         <v>1379.6</v>
@@ -10690,19 +10711,19 @@
         <v>1.77</v>
       </c>
       <c r="AF122">
-        <v>671.9854941069809</v>
+        <v>671.98549410698092</v>
       </c>
       <c r="AG122">
         <v>26.05016621335751</v>
       </c>
       <c r="AH122">
-        <v>216.8026594137201</v>
+        <v>216.80265941372011</v>
       </c>
       <c r="AI122" s="2">
         <v>39113</v>
       </c>
     </row>
-    <row r="123" spans="1:35">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10767,7 +10788,7 @@
         <v>847</v>
       </c>
       <c r="V123">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W123">
         <v>1379.6</v>
@@ -10776,19 +10797,19 @@
         <v>1.77</v>
       </c>
       <c r="AF123">
-        <v>609.5497129042006</v>
+        <v>609.54971290420065</v>
       </c>
       <c r="AG123">
         <v>12.14868540344515</v>
       </c>
       <c r="AH123">
-        <v>192.1426412813539</v>
+        <v>192.14264128135389</v>
       </c>
       <c r="AI123" s="2">
         <v>39141</v>
       </c>
     </row>
-    <row r="124" spans="1:35">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10814,7 +10835,7 @@
         <v>112.7</v>
       </c>
       <c r="I124">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="J124">
         <v>23</v>
@@ -10826,7 +10847,7 @@
         <v>27.7</v>
       </c>
       <c r="M124">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N124">
         <v>24.6</v>
@@ -10853,7 +10874,7 @@
         <v>847</v>
       </c>
       <c r="V124">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W124">
         <v>1379.6</v>
@@ -10865,7 +10886,7 @@
         <v>570.0211544273194</v>
       </c>
       <c r="AG124">
-        <v>20.06648534300393</v>
+        <v>20.066485343003929</v>
       </c>
       <c r="AH124">
         <v>173.1640979147779</v>
@@ -10874,7 +10895,7 @@
         <v>39172</v>
       </c>
     </row>
-    <row r="125" spans="1:35">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10912,13 +10933,13 @@
         <v>28.9</v>
       </c>
       <c r="M125">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="N125">
         <v>26</v>
       </c>
       <c r="O125">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="P125">
         <v>24.5</v>
@@ -10939,7 +10960,7 @@
         <v>847</v>
       </c>
       <c r="V125">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W125">
         <v>1379.6</v>
@@ -10951,7 +10972,7 @@
         <v>368.4496826835902</v>
       </c>
       <c r="AG125">
-        <v>37.77576307041402</v>
+        <v>37.775763070414023</v>
       </c>
       <c r="AH125">
         <v>170.806890299184</v>
@@ -10960,7 +10981,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="126" spans="1:35">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10998,7 +11019,7 @@
         <v>28.5</v>
       </c>
       <c r="M126">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N126">
         <v>25.8</v>
@@ -11025,7 +11046,7 @@
         <v>847</v>
       </c>
       <c r="V126">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W126">
         <v>1379.6</v>
@@ -11037,16 +11058,16 @@
         <v>379.4499848896948</v>
       </c>
       <c r="AG126">
-        <v>59.89724992444847</v>
+        <v>59.897249924448467</v>
       </c>
       <c r="AH126">
-        <v>167.4221819280749</v>
+        <v>167.42218192807491</v>
       </c>
       <c r="AI126" s="2">
         <v>39233</v>
       </c>
     </row>
-    <row r="127" spans="1:35">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11069,7 +11090,7 @@
         <v>2716</v>
       </c>
       <c r="H127">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="I127">
         <v>191.4</v>
@@ -11084,7 +11105,7 @@
         <v>28.2</v>
       </c>
       <c r="M127">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N127">
         <v>25.5</v>
@@ -11111,7 +11132,7 @@
         <v>847</v>
       </c>
       <c r="V127">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W127">
         <v>1379.6</v>
@@ -11120,19 +11141,19 @@
         <v>1.77</v>
       </c>
       <c r="AF127">
-        <v>393.3514656996072</v>
+        <v>393.35146569960722</v>
       </c>
       <c r="AG127">
         <v>106.4974312481112</v>
       </c>
       <c r="AH127">
-        <v>164.1583559987912</v>
+        <v>164.15835599879119</v>
       </c>
       <c r="AI127" s="2">
         <v>39263</v>
       </c>
     </row>
-    <row r="128" spans="1:35">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11197,7 +11218,7 @@
         <v>847</v>
       </c>
       <c r="V128">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W128">
         <v>1379.6</v>
@@ -11206,7 +11227,7 @@
         <v>1.77</v>
       </c>
       <c r="AF128">
-        <v>483.5902085222122</v>
+        <v>483.59020852221221</v>
       </c>
       <c r="AG128">
         <v>115.0800846177093</v>
@@ -11218,7 +11239,7 @@
         <v>39294</v>
       </c>
     </row>
-    <row r="129" spans="1:35">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11241,7 +11262,7 @@
         <v>2532</v>
       </c>
       <c r="H129">
-        <v>84.59999999999999</v>
+        <v>84.6</v>
       </c>
       <c r="I129">
         <v>188.8</v>
@@ -11262,7 +11283,7 @@
         <v>25.1</v>
       </c>
       <c r="O129">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P129">
         <v>22.5</v>
@@ -11283,7 +11304,7 @@
         <v>847</v>
       </c>
       <c r="V129">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W129">
         <v>1379.6</v>
@@ -11292,19 +11313,19 @@
         <v>1.77</v>
       </c>
       <c r="AF129">
-        <v>452.1607736476277</v>
+        <v>452.16077364762771</v>
       </c>
       <c r="AG129">
         <v>126.2012692656392</v>
       </c>
       <c r="AH129">
-        <v>153.0371713508613</v>
+        <v>153.03717135086131</v>
       </c>
       <c r="AI129" s="2">
         <v>39325</v>
       </c>
     </row>
-    <row r="130" spans="1:35">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11348,7 +11369,7 @@
         <v>25.4</v>
       </c>
       <c r="O130">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P130">
         <v>23.7</v>
@@ -11369,7 +11390,7 @@
         <v>847</v>
       </c>
       <c r="V130">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W130">
         <v>1379.6</v>
@@ -11378,7 +11399,7 @@
         <v>1.77</v>
       </c>
       <c r="AF130">
-        <v>477.7878513145965</v>
+        <v>477.78785131459648</v>
       </c>
       <c r="AG130">
         <v>120.2780296161982</v>
@@ -11390,7 +11411,7 @@
         <v>39355</v>
       </c>
     </row>
-    <row r="131" spans="1:35">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11413,7 +11434,7 @@
         <v>1079</v>
       </c>
       <c r="H131">
-        <v>65.90000000000001</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I131">
         <v>161.6</v>
@@ -11455,7 +11476,7 @@
         <v>847</v>
       </c>
       <c r="V131">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W131">
         <v>1379.6</v>
@@ -11464,19 +11485,19 @@
         <v>1.77</v>
       </c>
       <c r="AF131">
-        <v>115.9867029313992</v>
+        <v>115.98670293139919</v>
       </c>
       <c r="AG131">
-        <v>85.70565125415534</v>
+        <v>85.705651254155342</v>
       </c>
       <c r="AH131">
-        <v>65.21607736476277</v>
+        <v>65.216077364762768</v>
       </c>
       <c r="AI131" s="2">
         <v>39386</v>
       </c>
     </row>
-    <row r="132" spans="1:35">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11541,7 +11562,7 @@
         <v>847</v>
       </c>
       <c r="V132">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W132">
         <v>1379.6</v>
@@ -11553,7 +11574,7 @@
         <v>570.0211544273194</v>
       </c>
       <c r="AG132">
-        <v>46.90238742822605</v>
+        <v>46.902387428226049</v>
       </c>
       <c r="AH132">
         <v>170.0211544273194</v>
@@ -11562,7 +11583,7 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="133" spans="1:35">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11585,10 +11606,10 @@
         <v>2390</v>
       </c>
       <c r="H133">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="I133">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J133">
         <v>8</v>
@@ -11627,7 +11648,7 @@
         <v>847</v>
       </c>
       <c r="V133">
-        <v>274.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="W133">
         <v>1379.6</v>
@@ -11639,16 +11660,16 @@
         <v>558.7186461166516</v>
       </c>
       <c r="AG133">
-        <v>29.85796313085524</v>
+        <v>29.857963130855239</v>
       </c>
       <c r="AH133">
-        <v>144.4545179812632</v>
+        <v>144.45451798126319</v>
       </c>
       <c r="AI133" s="2">
         <v>39447</v>
       </c>
     </row>
-    <row r="134" spans="1:35">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11713,7 +11734,7 @@
         <v>833</v>
       </c>
       <c r="V134">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W134">
         <v>1381.1</v>
@@ -11722,28 +11743,28 @@
         <v>1.74</v>
       </c>
       <c r="AC134">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD134">
         <v>10.6</v>
       </c>
       <c r="AE134">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF134">
-        <v>556.3308270676691</v>
+        <v>556.33082706766913</v>
       </c>
       <c r="AG134">
         <v>13.29323308270677</v>
       </c>
       <c r="AH134">
-        <v>191.218045112782</v>
+        <v>191.21804511278199</v>
       </c>
       <c r="AI134" s="2">
         <v>39478</v>
       </c>
     </row>
-    <row r="135" spans="1:35">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11808,7 +11829,7 @@
         <v>833</v>
       </c>
       <c r="V135">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W135">
         <v>1381.1</v>
@@ -11817,19 +11838,19 @@
         <v>1.74</v>
       </c>
       <c r="AC135">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD135">
         <v>10.6</v>
       </c>
       <c r="AE135">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF135">
-        <v>540.5714285714286</v>
+        <v>540.57142857142856</v>
       </c>
       <c r="AG135">
-        <v>5.233082706766917</v>
+        <v>5.2330827067669166</v>
       </c>
       <c r="AH135">
         <v>16.84210526315789</v>
@@ -11838,7 +11859,7 @@
         <v>39507</v>
       </c>
     </row>
-    <row r="136" spans="1:35">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11864,7 +11885,7 @@
         <v>109.7</v>
       </c>
       <c r="I136">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J136">
         <v>4</v>
@@ -11876,7 +11897,7 @@
         <v>27.3</v>
       </c>
       <c r="M136">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N136">
         <v>23.8</v>
@@ -11903,7 +11924,7 @@
         <v>833</v>
       </c>
       <c r="V136">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W136">
         <v>1381.1</v>
@@ -11912,19 +11933,19 @@
         <v>1.74</v>
       </c>
       <c r="AC136">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD136">
         <v>10.6</v>
       </c>
       <c r="AE136">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF136">
-        <v>545.624060150376</v>
+        <v>545.62406015037595</v>
       </c>
       <c r="AG136">
-        <v>4.090225563909774</v>
+        <v>4.0902255639097742</v>
       </c>
       <c r="AH136">
         <v>182.015037593985</v>
@@ -11933,7 +11954,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="137" spans="1:35">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11998,7 +12019,7 @@
         <v>833</v>
       </c>
       <c r="V137">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W137">
         <v>1381.1</v>
@@ -12007,19 +12028,19 @@
         <v>1.74</v>
       </c>
       <c r="AC137">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD137">
         <v>10.6</v>
       </c>
       <c r="AE137">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF137">
-        <v>422.9774436090225</v>
+        <v>422.97744360902249</v>
       </c>
       <c r="AG137">
-        <v>3.308270676691729</v>
+        <v>3.3082706766917291</v>
       </c>
       <c r="AH137">
         <v>155.5488721804511</v>
@@ -12028,7 +12049,7 @@
         <v>39568</v>
       </c>
     </row>
-    <row r="138" spans="1:35">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12066,13 +12087,13 @@
         <v>27.7</v>
       </c>
       <c r="M138">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N138">
         <v>25.2</v>
       </c>
       <c r="O138">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P138">
         <v>22.4</v>
@@ -12093,7 +12114,7 @@
         <v>833</v>
       </c>
       <c r="V138">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W138">
         <v>1381.1</v>
@@ -12102,28 +12123,28 @@
         <v>1.74</v>
       </c>
       <c r="AC138">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD138">
         <v>10.6</v>
       </c>
       <c r="AE138">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF138">
-        <v>456.3007518796992</v>
+        <v>456.30075187969919</v>
       </c>
       <c r="AG138">
-        <v>4.330827067669173</v>
+        <v>4.3308270676691727</v>
       </c>
       <c r="AH138">
-        <v>136.1804511278196</v>
+        <v>136.18045112781959</v>
       </c>
       <c r="AI138" s="2">
         <v>39599</v>
       </c>
     </row>
-    <row r="139" spans="1:35">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12188,7 +12209,7 @@
         <v>833</v>
       </c>
       <c r="V139">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W139">
         <v>1381.1</v>
@@ -12197,28 +12218,28 @@
         <v>1.74</v>
       </c>
       <c r="AC139">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD139">
         <v>10.6</v>
       </c>
       <c r="AE139">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF139">
-        <v>491.9097744360902</v>
+        <v>491.90977443609017</v>
       </c>
       <c r="AG139">
         <v>7.518796992481203</v>
       </c>
       <c r="AH139">
-        <v>122.2255639097744</v>
+        <v>122.22556390977439</v>
       </c>
       <c r="AI139" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="140" spans="1:35">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12283,7 +12304,7 @@
         <v>833</v>
       </c>
       <c r="V140">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W140">
         <v>1381.1</v>
@@ -12292,28 +12313,28 @@
         <v>1.74</v>
       </c>
       <c r="AC140">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD140">
         <v>10.6</v>
       </c>
       <c r="AE140">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF140">
-        <v>179.3082706766917</v>
+        <v>179.30827067669171</v>
       </c>
       <c r="AG140">
         <v>10.94736842105263</v>
       </c>
       <c r="AH140">
-        <v>150.4962406015038</v>
+        <v>150.49624060150381</v>
       </c>
       <c r="AI140" s="2">
         <v>39660</v>
       </c>
     </row>
-    <row r="141" spans="1:35">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12336,7 +12357,7 @@
         <v>2599</v>
       </c>
       <c r="H141">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="I141">
         <v>176.3</v>
@@ -12378,7 +12399,7 @@
         <v>833</v>
       </c>
       <c r="V141">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W141">
         <v>1381.1</v>
@@ -12387,28 +12408,28 @@
         <v>1.74</v>
       </c>
       <c r="AC141">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD141">
         <v>10.6</v>
       </c>
       <c r="AE141">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF141">
-        <v>500.0902255639097</v>
+        <v>500.09022556390971</v>
       </c>
       <c r="AG141">
         <v>11.00751879699248</v>
       </c>
       <c r="AH141">
-        <v>156.3308270676692</v>
+        <v>156.33082706766919</v>
       </c>
       <c r="AI141" s="2">
         <v>39691</v>
       </c>
     </row>
-    <row r="142" spans="1:35">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12452,7 +12473,7 @@
         <v>24.9</v>
       </c>
       <c r="O142">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P142">
         <v>23.4</v>
@@ -12473,7 +12494,7 @@
         <v>833</v>
       </c>
       <c r="V142">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W142">
         <v>1381.1</v>
@@ -12482,16 +12503,16 @@
         <v>1.74</v>
       </c>
       <c r="AC142">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD142">
         <v>10.6</v>
       </c>
       <c r="AE142">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF142">
-        <v>400.781954887218</v>
+        <v>400.78195488721798</v>
       </c>
       <c r="AG142">
         <v>16.96240601503759</v>
@@ -12503,7 +12524,7 @@
         <v>39721</v>
       </c>
     </row>
-    <row r="143" spans="1:35">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12547,7 +12568,7 @@
         <v>25.2</v>
       </c>
       <c r="O143">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="P143">
         <v>23.4</v>
@@ -12568,7 +12589,7 @@
         <v>833</v>
       </c>
       <c r="V143">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W143">
         <v>1381.1</v>
@@ -12577,19 +12598,19 @@
         <v>1.74</v>
       </c>
       <c r="AC143">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD143">
         <v>10.6</v>
       </c>
       <c r="AE143">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF143">
-        <v>497.7443609022556</v>
+        <v>497.74436090225561</v>
       </c>
       <c r="AG143">
-        <v>20.45112781954887</v>
+        <v>20.451127819548869</v>
       </c>
       <c r="AH143">
         <v>107.9097744360902</v>
@@ -12598,7 +12619,7 @@
         <v>39752</v>
       </c>
     </row>
-    <row r="144" spans="1:35">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12621,7 +12642,7 @@
         <v>1788</v>
       </c>
       <c r="H144">
-        <v>69.59999999999999</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="I144">
         <v>176.6</v>
@@ -12663,7 +12684,7 @@
         <v>833</v>
       </c>
       <c r="V144">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W144">
         <v>1381.1</v>
@@ -12672,13 +12693,13 @@
         <v>1.74</v>
       </c>
       <c r="AC144">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD144">
         <v>10.6</v>
       </c>
       <c r="AE144">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF144">
         <v>101.6541353383459</v>
@@ -12693,7 +12714,7 @@
         <v>39782</v>
       </c>
     </row>
-    <row r="145" spans="1:35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12758,7 +12779,7 @@
         <v>833</v>
       </c>
       <c r="V145">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="W145">
         <v>1381.1</v>
@@ -12767,19 +12788,19 @@
         <v>1.74</v>
       </c>
       <c r="AC145">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AD145">
         <v>10.6</v>
       </c>
       <c r="AE145">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AF145">
         <v>169.984962406015</v>
       </c>
       <c r="AG145">
-        <v>17.08270676691729</v>
+        <v>17.082706766917291</v>
       </c>
       <c r="AH145">
         <v>133.0526315789474</v>
@@ -12788,7 +12809,7 @@
         <v>39813</v>
       </c>
     </row>
-    <row r="146" spans="1:35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12811,10 +12832,10 @@
         <v>2797</v>
       </c>
       <c r="H146">
-        <v>78.90000000000001</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I146">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -12862,19 +12883,19 @@
         <v>1.87</v>
       </c>
       <c r="AF146">
-        <v>504.4401776071043</v>
+        <v>504.44017760710432</v>
       </c>
       <c r="AG146">
-        <v>8.220328813152527</v>
+        <v>8.2203288131525269</v>
       </c>
       <c r="AH146">
-        <v>167.8267130685227</v>
+        <v>167.82671306852271</v>
       </c>
       <c r="AI146" s="2">
         <v>39844</v>
       </c>
     </row>
-    <row r="147" spans="1:35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12918,7 +12939,7 @@
         <v>23.7</v>
       </c>
       <c r="O147">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P147">
         <v>21</v>
@@ -12948,19 +12969,19 @@
         <v>1.87</v>
       </c>
       <c r="AF147">
-        <v>564.9825993039723</v>
+        <v>564.98259930397228</v>
       </c>
       <c r="AG147">
         <v>6.600264010560422</v>
       </c>
       <c r="AH147">
-        <v>186.5474618984759</v>
+        <v>186.54746189847589</v>
       </c>
       <c r="AI147" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="148" spans="1:35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12998,13 +13019,13 @@
         <v>28.2</v>
       </c>
       <c r="M148">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N148">
         <v>25.2</v>
       </c>
       <c r="O148">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P148">
         <v>23.4</v>
@@ -13034,19 +13055,19 @@
         <v>1.87</v>
       </c>
       <c r="AF148">
-        <v>472.8189127565103</v>
+        <v>472.81891275651031</v>
       </c>
       <c r="AG148">
-        <v>6.000240009600384</v>
+        <v>6.0002400096003843</v>
       </c>
       <c r="AH148">
-        <v>170.0468018720749</v>
+        <v>170.04680187207489</v>
       </c>
       <c r="AI148" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="149" spans="1:35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -13120,19 +13141,19 @@
         <v>1.87</v>
       </c>
       <c r="AF149">
-        <v>548.1219248769951</v>
+        <v>548.12192487699508</v>
       </c>
       <c r="AG149">
-        <v>8.160326413056524</v>
+        <v>8.1603264130565236</v>
       </c>
       <c r="AH149">
-        <v>221.8288731549262</v>
+        <v>221.82887315492621</v>
       </c>
       <c r="AI149" s="2">
         <v>39933</v>
       </c>
     </row>
-    <row r="150" spans="1:35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -13206,19 +13227,19 @@
         <v>1.87</v>
       </c>
       <c r="AF150">
-        <v>693.9877595103804</v>
+        <v>693.98775951038044</v>
       </c>
       <c r="AG150">
         <v>11.88047521900876</v>
       </c>
       <c r="AH150">
-        <v>222.1288851554062</v>
+        <v>222.12888515540621</v>
       </c>
       <c r="AI150" s="2">
         <v>39964</v>
       </c>
     </row>
-    <row r="151" spans="1:35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -13292,19 +13313,19 @@
         <v>1.87</v>
       </c>
       <c r="AF151">
-        <v>422.296891875675</v>
+        <v>422.29689187567499</v>
       </c>
       <c r="AG151">
-        <v>20.94083763350534</v>
+        <v>20.940837633505339</v>
       </c>
       <c r="AH151">
-        <v>153.1861274450978</v>
+        <v>153.18612744509781</v>
       </c>
       <c r="AI151" s="2">
         <v>39994</v>
       </c>
     </row>
-    <row r="152" spans="1:35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -13381,16 +13402,16 @@
         <v>433.3973358934357</v>
       </c>
       <c r="AG152">
-        <v>25.20100804032161</v>
+        <v>25.201008040321611</v>
       </c>
       <c r="AH152">
-        <v>153.5461418456738</v>
+        <v>153.54614184567379</v>
       </c>
       <c r="AI152" s="2">
         <v>40025</v>
       </c>
     </row>
-    <row r="153" spans="1:35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -13467,7 +13488,7 @@
         <v>492.9797191887676</v>
       </c>
       <c r="AG153">
-        <v>29.16116644665787</v>
+        <v>29.161166446657869</v>
       </c>
       <c r="AH153">
         <v>152.0460818432737</v>
@@ -13476,7 +13497,7 @@
         <v>40056</v>
       </c>
     </row>
-    <row r="154" spans="1:35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -13550,10 +13571,10 @@
         <v>1.87</v>
       </c>
       <c r="AF154">
-        <v>561.442457698308</v>
+        <v>561.44245769830798</v>
       </c>
       <c r="AG154">
-        <v>38.40153606144246</v>
+        <v>38.401536061442457</v>
       </c>
       <c r="AH154">
         <v>140.345613824553</v>
@@ -13562,7 +13583,7 @@
         <v>40086</v>
       </c>
     </row>
-    <row r="155" spans="1:35">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -13606,7 +13627,7 @@
         <v>25.2</v>
       </c>
       <c r="O155">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P155">
         <v>23.4</v>
@@ -13636,19 +13657,19 @@
         <v>1.87</v>
       </c>
       <c r="AF155">
-        <v>602.1240849633986</v>
+        <v>602.12408496339856</v>
       </c>
       <c r="AG155">
-        <v>32.64130565222609</v>
+        <v>32.641305652226087</v>
       </c>
       <c r="AH155">
-        <v>120.2448097923917</v>
+        <v>120.24480979239171</v>
       </c>
       <c r="AI155" s="2">
         <v>40117</v>
       </c>
     </row>
-    <row r="156" spans="1:35">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -13722,19 +13743,19 @@
         <v>1.87</v>
       </c>
       <c r="AF156">
-        <v>540.9816392655706</v>
+        <v>540.98163926557061</v>
       </c>
       <c r="AG156">
         <v>29.5811832473299</v>
       </c>
       <c r="AH156">
-        <v>117.5447017880715</v>
+        <v>117.54470178807151</v>
       </c>
       <c r="AI156" s="2">
         <v>40147</v>
       </c>
     </row>
-    <row r="157" spans="1:35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -13757,7 +13778,7 @@
         <v>2427</v>
       </c>
       <c r="H157">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="I157">
         <v>14.2</v>
@@ -13808,19 +13829,19 @@
         <v>1.87</v>
       </c>
       <c r="AF157">
-        <v>545.061802472099</v>
+        <v>545.06180247209898</v>
       </c>
       <c r="AG157">
-        <v>24.78099123964959</v>
+        <v>24.780991239649591</v>
       </c>
       <c r="AH157">
-        <v>145.6258250330013</v>
+        <v>145.62582503300129</v>
       </c>
       <c r="AI157" s="2">
         <v>40178</v>
       </c>
     </row>
-    <row r="158" spans="1:35">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -13843,7 +13864,7 @@
         <v>2783</v>
       </c>
       <c r="H158">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="I158">
         <v>29.8</v>
@@ -13867,7 +13888,7 @@
         <v>31.8</v>
       </c>
       <c r="P158">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="Q158">
         <v>83</v>
@@ -13894,7 +13915,7 @@
         <v>1.89</v>
       </c>
       <c r="AC158">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD158">
         <v>14.4</v>
@@ -13903,19 +13924,19 @@
         <v>47.6</v>
       </c>
       <c r="AF158">
-        <v>515.6324868231911</v>
+        <v>515.63248682319113</v>
       </c>
       <c r="AG158">
         <v>16.05174892189746</v>
       </c>
       <c r="AH158">
-        <v>166.6866315285098</v>
+        <v>166.68663152850979</v>
       </c>
       <c r="AI158" s="2">
         <v>40209</v>
       </c>
     </row>
-    <row r="159" spans="1:35">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -13953,13 +13974,13 @@
         <v>26.2</v>
       </c>
       <c r="M159">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N159">
         <v>22.3</v>
       </c>
       <c r="O159">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="P159">
         <v>20.7</v>
@@ -13989,7 +14010,7 @@
         <v>1.89</v>
       </c>
       <c r="AC159">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD159">
         <v>14.4</v>
@@ -13998,10 +14019,10 @@
         <v>47.6</v>
       </c>
       <c r="AF159">
-        <v>418.1241015812171</v>
+        <v>418.12410158121708</v>
       </c>
       <c r="AG159">
-        <v>8.505031145184477</v>
+        <v>8.5050311451844767</v>
       </c>
       <c r="AH159">
         <v>135.5414470531864</v>
@@ -14010,7 +14031,7 @@
         <v>40237</v>
       </c>
     </row>
-    <row r="160" spans="1:35">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14033,7 +14054,7 @@
         <v>2471</v>
       </c>
       <c r="H160">
-        <v>133.3</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="I160">
         <v>1.2</v>
@@ -14084,7 +14105,7 @@
         <v>1.89</v>
       </c>
       <c r="AC160">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD160">
         <v>14.4</v>
@@ -14093,19 +14114,19 @@
         <v>47.6</v>
       </c>
       <c r="AF160">
-        <v>439.5064686152372</v>
+        <v>439.50646861523722</v>
       </c>
       <c r="AG160">
-        <v>7.72640153330139</v>
+        <v>7.7264015333013898</v>
       </c>
       <c r="AH160">
-        <v>147.9995208433158</v>
+        <v>147.99952084331579</v>
       </c>
       <c r="AI160" s="2">
         <v>40268</v>
       </c>
     </row>
-    <row r="161" spans="1:35">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14131,7 +14152,7 @@
         <v>110.3</v>
       </c>
       <c r="I161">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="J161">
         <v>66</v>
@@ -14179,7 +14200,7 @@
         <v>1.89</v>
       </c>
       <c r="AC161">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD161">
         <v>14.4</v>
@@ -14188,19 +14209,19 @@
         <v>47.6</v>
       </c>
       <c r="AF161">
-        <v>422.4964063248682</v>
+        <v>422.49640632486819</v>
       </c>
       <c r="AG161">
-        <v>6.887877335888835</v>
+        <v>6.8878773358888354</v>
       </c>
       <c r="AH161">
-        <v>161.2961188308577</v>
+        <v>161.29611883085769</v>
       </c>
       <c r="AI161" s="2">
         <v>40298</v>
       </c>
     </row>
-    <row r="162" spans="1:35">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14226,7 +14247,7 @@
         <v>51.4</v>
       </c>
       <c r="I162">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="J162">
         <v>47</v>
@@ -14274,7 +14295,7 @@
         <v>1.89</v>
       </c>
       <c r="AC162">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD162">
         <v>14.4</v>
@@ -14283,19 +14304,19 @@
         <v>47.6</v>
       </c>
       <c r="AF162">
-        <v>486.5836128413991</v>
+        <v>486.58361284139909</v>
       </c>
       <c r="AG162">
-        <v>7.965979875419263</v>
+        <v>7.9659798754192632</v>
       </c>
       <c r="AH162">
-        <v>155.7858169621466</v>
+        <v>155.78581696214661</v>
       </c>
       <c r="AI162" s="2">
         <v>40329</v>
       </c>
     </row>
-    <row r="163" spans="1:35">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14339,7 +14360,7 @@
         <v>25.4</v>
       </c>
       <c r="O163">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P163">
         <v>24.1</v>
@@ -14369,7 +14390,7 @@
         <v>1.89</v>
       </c>
       <c r="AC163">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD163">
         <v>14.4</v>
@@ -14378,19 +14399,19 @@
         <v>47.6</v>
       </c>
       <c r="AF163">
-        <v>546.7776712985146</v>
+        <v>546.77767129851463</v>
       </c>
       <c r="AG163">
-        <v>13.77575467177767</v>
+        <v>13.775754671777671</v>
       </c>
       <c r="AH163">
-        <v>158.1816003833254</v>
+        <v>158.18160038332539</v>
       </c>
       <c r="AI163" s="2">
         <v>40359</v>
       </c>
     </row>
-    <row r="164" spans="1:35">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14428,7 +14449,7 @@
         <v>27.5</v>
       </c>
       <c r="M164">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N164">
         <v>24.9</v>
@@ -14464,7 +14485,7 @@
         <v>1.89</v>
       </c>
       <c r="AC164">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD164">
         <v>14.4</v>
@@ -14473,19 +14494,19 @@
         <v>47.6</v>
       </c>
       <c r="AF164">
-        <v>449.8682319118352</v>
+        <v>449.86823191183521</v>
       </c>
       <c r="AG164">
         <v>34.73885960709152</v>
       </c>
       <c r="AH164">
-        <v>145.0047915668424</v>
+        <v>145.00479156684241</v>
       </c>
       <c r="AI164" s="2">
         <v>40390</v>
       </c>
     </row>
-    <row r="165" spans="1:35">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14523,7 +14544,7 @@
         <v>27.5</v>
       </c>
       <c r="M165">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N165">
         <v>24.7</v>
@@ -14559,7 +14580,7 @@
         <v>1.89</v>
       </c>
       <c r="AC165">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD165">
         <v>14.4</v>
@@ -14568,10 +14589,10 @@
         <v>47.6</v>
       </c>
       <c r="AF165">
-        <v>546.1787254432199</v>
+        <v>546.17872544321995</v>
       </c>
       <c r="AG165">
-        <v>43.96262577862962</v>
+        <v>43.962625778629622</v>
       </c>
       <c r="AH165">
         <v>138.7158600862482</v>
@@ -14580,7 +14601,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="166" spans="1:35">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14654,7 +14675,7 @@
         <v>1.89</v>
       </c>
       <c r="AC166">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD166">
         <v>14.4</v>
@@ -14663,19 +14684,19 @@
         <v>47.6</v>
       </c>
       <c r="AF166">
-        <v>464.7819837086727</v>
+        <v>464.78198370867273</v>
       </c>
       <c r="AG166">
-        <v>47.61619549592717</v>
+        <v>47.616195495927172</v>
       </c>
       <c r="AH166">
-        <v>114.6981312889315</v>
+        <v>114.69813128893151</v>
       </c>
       <c r="AI166" s="2">
         <v>40451</v>
       </c>
     </row>
-    <row r="167" spans="1:35">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14698,7 +14719,7 @@
         <v>1654</v>
       </c>
       <c r="H167">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="I167">
         <v>512.5</v>
@@ -14719,7 +14740,7 @@
         <v>24.9</v>
       </c>
       <c r="O167">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P167">
         <v>21.8</v>
@@ -14749,7 +14770,7 @@
         <v>1.89</v>
       </c>
       <c r="AC167">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD167">
         <v>14.4</v>
@@ -14758,19 +14779,19 @@
         <v>47.6</v>
       </c>
       <c r="AF167">
-        <v>453.5218016291328</v>
+        <v>453.52180162913282</v>
       </c>
       <c r="AG167">
-        <v>41.38715860086248</v>
+        <v>41.387158600862477</v>
       </c>
       <c r="AH167">
-        <v>99.06564446574031</v>
+        <v>99.065644465740306</v>
       </c>
       <c r="AI167" s="2">
         <v>40482</v>
       </c>
     </row>
-    <row r="168" spans="1:35">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -14793,7 +14814,7 @@
         <v>1573</v>
       </c>
       <c r="H168">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="I168">
         <v>333.8</v>
@@ -14844,7 +14865,7 @@
         <v>1.89</v>
       </c>
       <c r="AC168">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD168">
         <v>14.4</v>
@@ -14853,19 +14874,19 @@
         <v>47.6</v>
       </c>
       <c r="AF168">
-        <v>461.1284139913752</v>
+        <v>461.12841399137523</v>
       </c>
       <c r="AG168">
-        <v>24.31720172496406</v>
+        <v>24.317201724964061</v>
       </c>
       <c r="AH168">
-        <v>94.21418303785339</v>
+        <v>94.214183037853388</v>
       </c>
       <c r="AI168" s="2">
         <v>40512</v>
       </c>
     </row>
-    <row r="169" spans="1:35">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -14891,7 +14912,7 @@
         <v>81.5</v>
       </c>
       <c r="I169">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="J169">
         <v>33</v>
@@ -14939,7 +14960,7 @@
         <v>1.89</v>
       </c>
       <c r="AC169">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AD169">
         <v>14.4</v>
@@ -14954,13 +14975,13 @@
         <v>12.3981792045999</v>
       </c>
       <c r="AH169">
-        <v>90.02156205079062</v>
+        <v>90.021562050790621</v>
       </c>
       <c r="AI169" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="170" spans="1:35">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -15022,10 +15043,10 @@
         <v>824.41</v>
       </c>
       <c r="U170">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V170">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W170">
         <v>1358.08</v>
@@ -15043,19 +15064,19 @@
         <v>1.83</v>
       </c>
       <c r="AF170">
-        <v>432.1349524436203</v>
+        <v>432.13495244362031</v>
       </c>
       <c r="AG170">
-        <v>12.50224322545911</v>
+        <v>12.502243225459109</v>
       </c>
       <c r="AH170">
-        <v>110.6059699706885</v>
+        <v>110.60596997068851</v>
       </c>
       <c r="AI170" s="2">
         <v>40574</v>
       </c>
     </row>
-    <row r="171" spans="1:35">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -15117,10 +15138,10 @@
         <v>824.41</v>
       </c>
       <c r="U171">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V171">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W171">
         <v>1358.08</v>
@@ -15138,19 +15159,19 @@
         <v>1.83</v>
       </c>
       <c r="AF171">
-        <v>426.0333791948316</v>
+        <v>426.03337919483158</v>
       </c>
       <c r="AG171">
         <v>6.460489322246814</v>
       </c>
       <c r="AH171">
-        <v>132.4400311060597</v>
+        <v>132.44003110605971</v>
       </c>
       <c r="AI171" s="2">
         <v>40602</v>
       </c>
     </row>
-    <row r="172" spans="1:35">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -15194,7 +15215,7 @@
         <v>23.9</v>
       </c>
       <c r="O172">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P172">
         <v>22.5</v>
@@ -15212,10 +15233,10 @@
         <v>824.41</v>
       </c>
       <c r="U172">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V172">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W172">
         <v>1358.08</v>
@@ -15233,7 +15254,7 @@
         <v>1.83</v>
       </c>
       <c r="AF172">
-        <v>381.6474247771729</v>
+        <v>381.64742477717289</v>
       </c>
       <c r="AG172">
         <v>7.716695579350362</v>
@@ -15245,7 +15266,7 @@
         <v>40633</v>
       </c>
     </row>
-    <row r="173" spans="1:35">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -15283,13 +15304,13 @@
         <v>28</v>
       </c>
       <c r="M173">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N173">
         <v>24.8</v>
       </c>
       <c r="O173">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P173">
         <v>23.2</v>
@@ -15307,10 +15328,10 @@
         <v>824.41</v>
       </c>
       <c r="U173">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V173">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W173">
         <v>1358.08</v>
@@ -15328,19 +15349,19 @@
         <v>1.83</v>
       </c>
       <c r="AF173">
-        <v>424.6575342465753</v>
+        <v>424.65753424657532</v>
       </c>
       <c r="AG173">
         <v>6.759586050128612</v>
       </c>
       <c r="AH173">
-        <v>104.4445773763235</v>
+        <v>104.44457737632349</v>
       </c>
       <c r="AI173" s="2">
         <v>40663</v>
       </c>
     </row>
-    <row r="174" spans="1:35">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -15378,13 +15399,13 @@
         <v>28.6</v>
       </c>
       <c r="M174">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N174">
         <v>25.7</v>
       </c>
       <c r="O174">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P174">
         <v>23.5</v>
@@ -15402,10 +15423,10 @@
         <v>824.41</v>
       </c>
       <c r="U174">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V174">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W174">
         <v>1358.08</v>
@@ -15423,19 +15444,19 @@
         <v>1.83</v>
       </c>
       <c r="AF174">
-        <v>401.0288927439133</v>
+        <v>401.02889274391327</v>
       </c>
       <c r="AG174">
-        <v>8.85326314530119</v>
+        <v>8.8532631453011899</v>
       </c>
       <c r="AH174">
-        <v>142.6691391996171</v>
+        <v>142.66913919961709</v>
       </c>
       <c r="AI174" s="2">
         <v>40694</v>
       </c>
     </row>
-    <row r="175" spans="1:35">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -15497,10 +15518,10 @@
         <v>824.41</v>
       </c>
       <c r="U175">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V175">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W175">
         <v>1358.08</v>
@@ -15518,10 +15539,10 @@
         <v>1.83</v>
       </c>
       <c r="AF175">
-        <v>542.9203804510379</v>
+        <v>542.92038045103789</v>
       </c>
       <c r="AG175">
-        <v>10.64784351259197</v>
+        <v>10.647843512591971</v>
       </c>
       <c r="AH175">
         <v>100.9750553328947</v>
@@ -15530,7 +15551,7 @@
         <v>40724</v>
       </c>
     </row>
-    <row r="176" spans="1:35">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -15574,7 +15595,7 @@
         <v>25</v>
       </c>
       <c r="O176">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P176">
         <v>23.4</v>
@@ -15592,10 +15613,10 @@
         <v>824.41</v>
       </c>
       <c r="U176">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V176">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W176">
         <v>1358.08</v>
@@ -15613,19 +15634,19 @@
         <v>1.83</v>
       </c>
       <c r="AF176">
-        <v>449.1834659328827</v>
+        <v>449.18346593288271</v>
       </c>
       <c r="AG176">
-        <v>16.80923610695699</v>
+        <v>16.809236106956991</v>
       </c>
       <c r="AH176">
-        <v>132.8587665250942</v>
+        <v>132.85876652509421</v>
       </c>
       <c r="AI176" s="2">
         <v>40755</v>
       </c>
     </row>
-    <row r="177" spans="1:35">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -15669,7 +15690,7 @@
         <v>25.3</v>
       </c>
       <c r="O177">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P177">
         <v>23.1</v>
@@ -15687,10 +15708,10 @@
         <v>824.41</v>
       </c>
       <c r="U177">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V177">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W177">
         <v>1358.08</v>
@@ -15708,19 +15729,19 @@
         <v>1.83</v>
       </c>
       <c r="AF177">
-        <v>448.8843692050008</v>
+        <v>448.88436920500078</v>
       </c>
       <c r="AG177">
-        <v>24.16701561284919</v>
+        <v>24.167015612849191</v>
       </c>
       <c r="AH177">
-        <v>102.9490937369145</v>
+        <v>102.94909373691451</v>
       </c>
       <c r="AI177" s="2">
         <v>40786</v>
       </c>
     </row>
-    <row r="178" spans="1:35">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -15764,7 +15785,7 @@
         <v>25.5</v>
       </c>
       <c r="O178">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P178">
         <v>23.8</v>
@@ -15782,10 +15803,10 @@
         <v>824.41</v>
       </c>
       <c r="U178">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V178">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W178">
         <v>1358.08</v>
@@ -15803,19 +15824,19 @@
         <v>1.83</v>
       </c>
       <c r="AF178">
-        <v>629.837889573488</v>
+        <v>629.83788957348804</v>
       </c>
       <c r="AG178">
-        <v>25.00448645091823</v>
+        <v>25.004486450918229</v>
       </c>
       <c r="AH178">
-        <v>93.73691451815517</v>
+        <v>93.736914518155174</v>
       </c>
       <c r="AI178" s="2">
         <v>40816</v>
       </c>
     </row>
-    <row r="179" spans="1:35">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -15877,10 +15898,10 @@
         <v>824.41</v>
       </c>
       <c r="U179">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V179">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W179">
         <v>1358.08</v>
@@ -15898,19 +15919,19 @@
         <v>1.83</v>
       </c>
       <c r="AF179">
-        <v>561.8831129987437</v>
+        <v>561.88311299874374</v>
       </c>
       <c r="AG179">
         <v>24.10719626727283</v>
       </c>
       <c r="AH179">
-        <v>82.84979362325777</v>
+        <v>82.849793623257767</v>
       </c>
       <c r="AI179" s="2">
         <v>40847</v>
       </c>
     </row>
-    <row r="180" spans="1:35">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15972,10 +15993,10 @@
         <v>824.41</v>
       </c>
       <c r="U180">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V180">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W180">
         <v>1358.08</v>
@@ -15996,16 +16017,16 @@
         <v>445.3550278159957</v>
       </c>
       <c r="AG180">
-        <v>22.61171262786385</v>
+        <v>22.611712627863849</v>
       </c>
       <c r="AH180">
-        <v>84.22563857151403</v>
+        <v>84.225638571514025</v>
       </c>
       <c r="AI180" s="2">
         <v>40877</v>
       </c>
     </row>
-    <row r="181" spans="1:35">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -16052,7 +16073,7 @@
         <v>31</v>
       </c>
       <c r="P181">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Q181">
         <v>83</v>
@@ -16067,10 +16088,10 @@
         <v>824.41</v>
       </c>
       <c r="U181">
-        <v>828.8200000000001</v>
+        <v>828.82</v>
       </c>
       <c r="V181">
-        <v>295.16</v>
+        <v>295.16000000000003</v>
       </c>
       <c r="W181">
         <v>1358.08</v>
@@ -16088,19 +16109,19 @@
         <v>1.83</v>
       </c>
       <c r="AF181">
-        <v>442.7229766106358</v>
+        <v>442.72297661063578</v>
       </c>
       <c r="AG181">
         <v>13.57899144583358</v>
       </c>
       <c r="AH181">
-        <v>100.5563199138601</v>
+        <v>100.55631991386009</v>
       </c>
       <c r="AI181" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="182" spans="1:35">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -16162,7 +16183,7 @@
         <v>821.1</v>
       </c>
       <c r="U182">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V182">
         <v>294.52</v>
@@ -16192,7 +16213,7 @@
         <v>53.3</v>
       </c>
       <c r="AF182">
-        <v>409.910447761194</v>
+        <v>409.91044776119401</v>
       </c>
       <c r="AG182">
         <v>6.388059701492538</v>
@@ -16204,7 +16225,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="183" spans="1:35">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -16248,7 +16269,7 @@
         <v>23.4</v>
       </c>
       <c r="O183">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P183">
         <v>21</v>
@@ -16266,7 +16287,7 @@
         <v>821.1</v>
       </c>
       <c r="U183">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V183">
         <v>294.52</v>
@@ -16296,10 +16317,10 @@
         <v>53.3</v>
       </c>
       <c r="AF183">
-        <v>442.9253731343284</v>
+        <v>442.92537313432842</v>
       </c>
       <c r="AG183">
-        <v>7.164179104477612</v>
+        <v>7.1641791044776122</v>
       </c>
       <c r="AH183">
         <v>123.6417910447761</v>
@@ -16308,7 +16329,7 @@
         <v>40968</v>
       </c>
     </row>
-    <row r="184" spans="1:35">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -16346,13 +16367,13 @@
         <v>27.8</v>
       </c>
       <c r="M184">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N184">
         <v>24.5</v>
       </c>
       <c r="O184">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P184">
         <v>22.8</v>
@@ -16370,7 +16391,7 @@
         <v>821.1</v>
       </c>
       <c r="U184">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V184">
         <v>294.52</v>
@@ -16403,7 +16424,7 @@
         <v>432</v>
       </c>
       <c r="AG184">
-        <v>8.358208955223882</v>
+        <v>8.3582089552238816</v>
       </c>
       <c r="AH184">
         <v>119.8208955223881</v>
@@ -16412,7 +16433,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="185" spans="1:35">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -16450,7 +16471,7 @@
         <v>28.6</v>
       </c>
       <c r="M185">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="N185">
         <v>25</v>
@@ -16474,7 +16495,7 @@
         <v>821.1</v>
       </c>
       <c r="U185">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V185">
         <v>294.52</v>
@@ -16504,7 +16525,7 @@
         <v>53.3</v>
       </c>
       <c r="AF185">
-        <v>323.2835820895522</v>
+        <v>323.28358208955223</v>
       </c>
       <c r="AG185">
         <v>11.1044776119403</v>
@@ -16516,7 +16537,7 @@
         <v>41029</v>
       </c>
     </row>
-    <row r="186" spans="1:35">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -16578,7 +16599,7 @@
         <v>821.1</v>
       </c>
       <c r="U186">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V186">
         <v>294.52</v>
@@ -16608,10 +16629,10 @@
         <v>53.3</v>
       </c>
       <c r="AF186">
-        <v>412.179104477612</v>
+        <v>412.17910447761199</v>
       </c>
       <c r="AG186">
-        <v>17.61194029850746</v>
+        <v>17.611940298507459</v>
       </c>
       <c r="AH186">
         <v>98.68656716417911</v>
@@ -16620,7 +16641,7 @@
         <v>41060</v>
       </c>
     </row>
-    <row r="187" spans="1:35">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -16664,7 +16685,7 @@
         <v>25.4</v>
       </c>
       <c r="O187">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P187">
         <v>23.8</v>
@@ -16682,7 +16703,7 @@
         <v>821.1</v>
       </c>
       <c r="U187">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V187">
         <v>294.52</v>
@@ -16712,19 +16733,19 @@
         <v>53.3</v>
       </c>
       <c r="AF187">
-        <v>550.0298507462687</v>
+        <v>550.02985074626872</v>
       </c>
       <c r="AG187">
-        <v>23.34328358208955</v>
+        <v>23.343283582089551</v>
       </c>
       <c r="AH187">
-        <v>93.43283582089552</v>
+        <v>93.432835820895519</v>
       </c>
       <c r="AI187" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="188" spans="1:35">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -16762,13 +16783,13 @@
         <v>27.6</v>
       </c>
       <c r="M188">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N188">
         <v>24.7</v>
       </c>
       <c r="O188">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P188">
         <v>22.2</v>
@@ -16786,7 +16807,7 @@
         <v>821.1</v>
       </c>
       <c r="U188">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V188">
         <v>294.52</v>
@@ -16819,16 +16840,16 @@
         <v>414.8656716417911</v>
       </c>
       <c r="AG188">
-        <v>40.53731343283582</v>
+        <v>40.537313432835823</v>
       </c>
       <c r="AH188">
-        <v>97.91044776119404</v>
+        <v>97.910447761194035</v>
       </c>
       <c r="AI188" s="2">
         <v>41121</v>
       </c>
     </row>
-    <row r="189" spans="1:35">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -16866,13 +16887,13 @@
         <v>28</v>
       </c>
       <c r="M189">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N189">
         <v>25</v>
       </c>
       <c r="O189">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P189">
         <v>23.5</v>
@@ -16890,7 +16911,7 @@
         <v>821.1</v>
       </c>
       <c r="U189">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V189">
         <v>294.52</v>
@@ -16920,19 +16941,19 @@
         <v>53.3</v>
       </c>
       <c r="AF189">
-        <v>428.5970149253731</v>
+        <v>428.59701492537312</v>
       </c>
       <c r="AG189">
-        <v>54.20895522388059</v>
+        <v>54.208955223880587</v>
       </c>
       <c r="AH189">
-        <v>96.35820895522387</v>
+        <v>96.358208955223873</v>
       </c>
       <c r="AI189" s="2">
         <v>41152</v>
       </c>
     </row>
-    <row r="190" spans="1:35">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -16994,7 +17015,7 @@
         <v>821.1</v>
       </c>
       <c r="U190">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V190">
         <v>294.52</v>
@@ -17024,19 +17045,19 @@
         <v>53.3</v>
       </c>
       <c r="AF190">
-        <v>430.6865671641791</v>
+        <v>430.68656716417911</v>
       </c>
       <c r="AG190">
-        <v>39.46268656716418</v>
+        <v>39.462686567164177</v>
       </c>
       <c r="AH190">
-        <v>76.11940298507463</v>
+        <v>76.119402985074629</v>
       </c>
       <c r="AI190" s="2">
         <v>41182</v>
       </c>
     </row>
-    <row r="191" spans="1:35">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -17098,7 +17119,7 @@
         <v>821.1</v>
       </c>
       <c r="U191">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V191">
         <v>294.52</v>
@@ -17128,19 +17149,19 @@
         <v>53.3</v>
       </c>
       <c r="AF191">
-        <v>541.4925373134328</v>
+        <v>541.49253731343276</v>
       </c>
       <c r="AG191">
-        <v>33.97014925373134</v>
+        <v>33.970149253731343</v>
       </c>
       <c r="AH191">
-        <v>88.83582089552239</v>
+        <v>88.835820895522389</v>
       </c>
       <c r="AI191" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="192" spans="1:35">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -17184,7 +17205,7 @@
         <v>24.9</v>
       </c>
       <c r="O192">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P192">
         <v>23.6</v>
@@ -17202,7 +17223,7 @@
         <v>821.1</v>
       </c>
       <c r="U192">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V192">
         <v>294.52</v>
@@ -17232,19 +17253,19 @@
         <v>53.3</v>
       </c>
       <c r="AF192">
-        <v>416.0597014925373</v>
+        <v>416.05970149253727</v>
       </c>
       <c r="AG192">
         <v>34.92537313432836</v>
       </c>
       <c r="AH192">
-        <v>87.22388059701493</v>
+        <v>87.223880597014926</v>
       </c>
       <c r="AI192" s="2">
         <v>41243</v>
       </c>
     </row>
-    <row r="193" spans="1:35">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17288,7 +17309,7 @@
         <v>24.2</v>
       </c>
       <c r="O193">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P193">
         <v>22.2</v>
@@ -17306,7 +17327,7 @@
         <v>821.1</v>
       </c>
       <c r="U193">
-        <v>825.0599999999999</v>
+        <v>825.06</v>
       </c>
       <c r="V193">
         <v>294.52</v>
@@ -17336,10 +17357,10 @@
         <v>53.3</v>
       </c>
       <c r="AF193">
-        <v>406.0895522388059</v>
+        <v>406.08955223880588</v>
       </c>
       <c r="AG193">
-        <v>20.47761194029851</v>
+        <v>20.477611940298509</v>
       </c>
       <c r="AH193">
         <v>119.5223880597015</v>
@@ -17348,7 +17369,7 @@
         <v>41274</v>
       </c>
     </row>
-    <row r="194" spans="1:35">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17392,7 +17413,7 @@
         <v>22.3</v>
       </c>
       <c r="O194">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="P194">
         <v>19.3</v>
@@ -17431,13 +17452,13 @@
         <v>1.89</v>
       </c>
       <c r="AD194">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF194">
-        <v>447.032888465205</v>
+        <v>447.03288846520502</v>
       </c>
       <c r="AG194">
-        <v>9.652049571020019</v>
+        <v>9.6520495710200187</v>
       </c>
       <c r="AH194">
         <v>123.1530028598665</v>
@@ -17446,7 +17467,7 @@
         <v>41305</v>
       </c>
     </row>
-    <row r="195" spans="1:35">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17484,13 +17505,13 @@
         <v>26.7</v>
       </c>
       <c r="M195">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N195">
         <v>23.1</v>
       </c>
       <c r="O195">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P195">
         <v>21.2</v>
@@ -17529,22 +17550,22 @@
         <v>1.89</v>
       </c>
       <c r="AD195">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF195">
-        <v>333.591515729266</v>
+        <v>333.59151572926601</v>
       </c>
       <c r="AG195">
         <v>5.600571973307912</v>
       </c>
       <c r="AH195">
-        <v>102.1806482364156</v>
+        <v>102.18064823641561</v>
       </c>
       <c r="AI195" s="2">
         <v>41333</v>
       </c>
     </row>
-    <row r="196" spans="1:35">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17582,13 +17603,13 @@
         <v>28.2</v>
       </c>
       <c r="M196">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="N196">
         <v>24.4</v>
       </c>
       <c r="O196">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P196">
         <v>22.5</v>
@@ -17627,22 +17648,22 @@
         <v>1.89</v>
       </c>
       <c r="AD196">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF196">
-        <v>277.2878932316492</v>
+        <v>277.28789323164921</v>
       </c>
       <c r="AG196">
-        <v>6.375119161105815</v>
+        <v>6.3751191611058147</v>
       </c>
       <c r="AH196">
-        <v>98.96329837940895</v>
+        <v>98.963298379408954</v>
       </c>
       <c r="AI196" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="197" spans="1:35">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -17725,22 +17746,22 @@
         <v>1.89</v>
       </c>
       <c r="AD197">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF197">
-        <v>276.9899904671115</v>
+        <v>276.98999046711151</v>
       </c>
       <c r="AG197">
         <v>3.455672068636797</v>
       </c>
       <c r="AH197">
-        <v>79.77836034318399</v>
+        <v>79.778360343183991</v>
       </c>
       <c r="AI197" s="2">
         <v>41394</v>
       </c>
     </row>
-    <row r="198" spans="1:35">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -17784,7 +17805,7 @@
         <v>25.7</v>
       </c>
       <c r="O198">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="P198">
         <v>23.6</v>
@@ -17823,22 +17844,22 @@
         <v>1.89</v>
       </c>
       <c r="AD198">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF198">
-        <v>300.7626310772164</v>
+        <v>300.76263107721638</v>
       </c>
       <c r="AG198">
         <v>4.28979980934223</v>
       </c>
       <c r="AH198">
-        <v>91.87321258341277</v>
+        <v>91.873212583412766</v>
       </c>
       <c r="AI198" s="2">
         <v>41425</v>
       </c>
     </row>
-    <row r="199" spans="1:35">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -17921,22 +17942,22 @@
         <v>1.89</v>
       </c>
       <c r="AD199">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF199">
-        <v>268.2316491897045</v>
+        <v>268.23164918970451</v>
       </c>
       <c r="AG199">
-        <v>4.826024785510009</v>
+        <v>4.8260247855100094</v>
       </c>
       <c r="AH199">
-        <v>94.67349857006673</v>
+        <v>94.673498570066727</v>
       </c>
       <c r="AI199" s="2">
         <v>41455</v>
       </c>
     </row>
-    <row r="200" spans="1:35">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -18019,22 +18040,22 @@
         <v>1.89</v>
       </c>
       <c r="AD200">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF200">
-        <v>236.2964728312678</v>
+        <v>236.29647283126781</v>
       </c>
       <c r="AG200">
-        <v>6.136796949475691</v>
+        <v>6.1367969494756913</v>
       </c>
       <c r="AH200">
-        <v>93.18398474737845</v>
+        <v>93.183984747378446</v>
       </c>
       <c r="AI200" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="201" spans="1:35">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -18078,7 +18099,7 @@
         <v>25</v>
       </c>
       <c r="O201">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P201">
         <v>23.1</v>
@@ -18117,22 +18138,22 @@
         <v>1.89</v>
       </c>
       <c r="AD201">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF201">
-        <v>242.0162059103908</v>
+        <v>242.01620591039079</v>
       </c>
       <c r="AG201">
-        <v>5.004766444232602</v>
+        <v>5.0047664442326019</v>
       </c>
       <c r="AH201">
-        <v>88.59628217349857</v>
+        <v>88.596282173498565</v>
       </c>
       <c r="AI201" s="2">
         <v>41517</v>
       </c>
     </row>
-    <row r="202" spans="1:35">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -18215,22 +18236,22 @@
         <v>1.89</v>
       </c>
       <c r="AD202">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF202">
-        <v>273.8918017159199</v>
+        <v>273.89180171591988</v>
       </c>
       <c r="AG202">
-        <v>5.362249761677789</v>
+        <v>5.3622497616777887</v>
       </c>
       <c r="AH202">
-        <v>76.62059103908484</v>
+        <v>76.620591039084843</v>
       </c>
       <c r="AI202" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="203" spans="1:35">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -18313,22 +18334,22 @@
         <v>1.89</v>
       </c>
       <c r="AD203">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF203">
-        <v>301.4775977121067</v>
+        <v>301.47759771210667</v>
       </c>
       <c r="AG203">
-        <v>7.209246901811249</v>
+        <v>7.2092469018112491</v>
       </c>
       <c r="AH203">
-        <v>60.95090562440419</v>
+        <v>60.950905624404193</v>
       </c>
       <c r="AI203" s="2">
         <v>41578</v>
       </c>
     </row>
-    <row r="204" spans="1:35">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -18372,7 +18393,7 @@
         <v>25.2</v>
       </c>
       <c r="O204">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="P204">
         <v>23.8</v>
@@ -18411,22 +18432,22 @@
         <v>1.89</v>
       </c>
       <c r="AD204">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF204">
-        <v>275.6792183031458</v>
+        <v>275.67921830314577</v>
       </c>
       <c r="AG204">
-        <v>8.222116301239275</v>
+        <v>8.2221163012392751</v>
       </c>
       <c r="AH204">
-        <v>69.64966634890372</v>
+        <v>69.649666348903722</v>
       </c>
       <c r="AI204" s="2">
         <v>41608</v>
       </c>
     </row>
-    <row r="205" spans="1:35">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -18509,22 +18530,22 @@
         <v>1.89</v>
       </c>
       <c r="AD205">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF205">
-        <v>321.7349857006673</v>
+        <v>321.73498570066732</v>
       </c>
       <c r="AG205">
-        <v>6.494280266920876</v>
+        <v>6.4942802669208763</v>
       </c>
       <c r="AH205">
-        <v>70.72211630123927</v>
+        <v>70.722116301239268</v>
       </c>
       <c r="AI205" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="206" spans="1:35">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -18589,7 +18610,7 @@
         <v>817.73</v>
       </c>
       <c r="V206">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W206">
         <v>1339.09</v>
@@ -18607,7 +18628,7 @@
         <v>1.84</v>
       </c>
       <c r="AC206">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD206">
         <v>8.6</v>
@@ -18616,19 +18637,19 @@
         <v>60.4</v>
       </c>
       <c r="AF206">
-        <v>282.9953012549813</v>
+        <v>282.99530125498131</v>
       </c>
       <c r="AG206">
-        <v>3.628144887884376</v>
+        <v>3.6281448878843761</v>
       </c>
       <c r="AH206">
-        <v>73.87140902872777</v>
+        <v>73.871409028727768</v>
       </c>
       <c r="AI206" s="2">
         <v>41670</v>
       </c>
     </row>
-    <row r="207" spans="1:35">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -18693,7 +18714,7 @@
         <v>817.73</v>
       </c>
       <c r="V207">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W207">
         <v>1339.09</v>
@@ -18711,7 +18732,7 @@
         <v>1.84</v>
       </c>
       <c r="AC207">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD207">
         <v>8.6</v>
@@ -18720,19 +18741,19 @@
         <v>60.4</v>
       </c>
       <c r="AF207">
-        <v>265.389876880985</v>
+        <v>265.38987688098501</v>
       </c>
       <c r="AG207">
-        <v>1.9627669065604</v>
+        <v>1.9627669065604001</v>
       </c>
       <c r="AH207">
-        <v>87.491821804556</v>
+        <v>87.491821804555997</v>
       </c>
       <c r="AI207" s="2">
         <v>41698</v>
       </c>
     </row>
-    <row r="208" spans="1:35">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -18770,7 +18791,7 @@
         <v>27.3</v>
       </c>
       <c r="M208">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N208">
         <v>23.6</v>
@@ -18797,7 +18818,7 @@
         <v>817.73</v>
       </c>
       <c r="V208">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W208">
         <v>1339.09</v>
@@ -18815,7 +18836,7 @@
         <v>1.84</v>
       </c>
       <c r="AC208">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD208">
         <v>8.6</v>
@@ -18824,19 +18845,19 @@
         <v>60.4</v>
       </c>
       <c r="AF208">
-        <v>274.2520668530304</v>
+        <v>274.25206685303039</v>
       </c>
       <c r="AG208">
         <v>2.676500327127818</v>
       </c>
       <c r="AH208">
-        <v>84.45845476714447</v>
+        <v>84.458454767144474</v>
       </c>
       <c r="AI208" s="2">
         <v>41729</v>
       </c>
     </row>
-    <row r="209" spans="1:35">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -18901,7 +18922,7 @@
         <v>817.73</v>
       </c>
       <c r="V209">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W209">
         <v>1339.09</v>
@@ -18919,7 +18940,7 @@
         <v>1.84</v>
       </c>
       <c r="AC209">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD209">
         <v>8.6</v>
@@ -18928,10 +18949,10 @@
         <v>60.4</v>
       </c>
       <c r="AF209">
-        <v>261.5832986379588</v>
+        <v>261.58329863795882</v>
       </c>
       <c r="AG209">
-        <v>2.854933682269673</v>
+        <v>2.8549336822696731</v>
       </c>
       <c r="AH209">
         <v>81.06822101944924</v>
@@ -18940,7 +18961,7 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="210" spans="1:35">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19005,7 +19026,7 @@
         <v>817.73</v>
       </c>
       <c r="V210">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W210">
         <v>1339.09</v>
@@ -19023,7 +19044,7 @@
         <v>1.84</v>
       </c>
       <c r="AC210">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD210">
         <v>8.6</v>
@@ -19038,13 +19059,13 @@
         <v>3.449711532742521</v>
       </c>
       <c r="AH210">
-        <v>70.65960863617438</v>
+        <v>70.659608636174383</v>
       </c>
       <c r="AI210" s="2">
         <v>41790</v>
       </c>
     </row>
-    <row r="211" spans="1:35">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19109,7 +19130,7 @@
         <v>817.73</v>
       </c>
       <c r="V211">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W211">
         <v>1339.09</v>
@@ -19127,7 +19148,7 @@
         <v>1.84</v>
       </c>
       <c r="AC211">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD211">
         <v>8.6</v>
@@ -19142,13 +19163,13 @@
         <v>2.260155831796824</v>
       </c>
       <c r="AH211">
-        <v>69.11318622494498</v>
+        <v>69.113186224944982</v>
       </c>
       <c r="AI211" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="212" spans="1:35">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -19213,7 +19234,7 @@
         <v>817.73</v>
       </c>
       <c r="V212">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W212">
         <v>1339.09</v>
@@ -19231,7 +19252,7 @@
         <v>1.84</v>
       </c>
       <c r="AC212">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD212">
         <v>8.6</v>
@@ -19246,13 +19267,13 @@
         <v>3.985011598168084</v>
       </c>
       <c r="AH212">
-        <v>77.38059834651759</v>
+        <v>77.380598346517587</v>
       </c>
       <c r="AI212" s="2">
         <v>41851</v>
       </c>
     </row>
-    <row r="213" spans="1:35">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -19317,7 +19338,7 @@
         <v>817.73</v>
       </c>
       <c r="V213">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W213">
         <v>1339.09</v>
@@ -19335,7 +19356,7 @@
         <v>1.84</v>
       </c>
       <c r="AC213">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD213">
         <v>8.6</v>
@@ -19344,19 +19365,19 @@
         <v>60.4</v>
       </c>
       <c r="AF213">
-        <v>215.9638375066912</v>
+        <v>215.96383750669119</v>
       </c>
       <c r="AG213">
-        <v>3.390233747695236</v>
+        <v>3.3902337476952362</v>
       </c>
       <c r="AH213">
-        <v>73.45506453339678</v>
+        <v>73.455064533396779</v>
       </c>
       <c r="AI213" s="2">
         <v>41882</v>
       </c>
     </row>
-    <row r="214" spans="1:35">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -19400,7 +19421,7 @@
         <v>25.4</v>
       </c>
       <c r="O214">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P214">
         <v>23.6</v>
@@ -19421,7 +19442,7 @@
         <v>817.73</v>
       </c>
       <c r="V214">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W214">
         <v>1339.09</v>
@@ -19439,7 +19460,7 @@
         <v>1.84</v>
       </c>
       <c r="AC214">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD214">
         <v>8.6</v>
@@ -19448,19 +19469,19 @@
         <v>60.4</v>
       </c>
       <c r="AF214">
-        <v>231.4875394040326</v>
+        <v>231.48753940403259</v>
       </c>
       <c r="AG214">
-        <v>4.996133943971927</v>
+        <v>4.9961339439719268</v>
       </c>
       <c r="AH214">
-        <v>66.61511925295902</v>
+        <v>66.615119252959019</v>
       </c>
       <c r="AI214" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="215" spans="1:35">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -19504,7 +19525,7 @@
         <v>25.3</v>
       </c>
       <c r="O215">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P215">
         <v>23.8</v>
@@ -19525,7 +19546,7 @@
         <v>817.73</v>
       </c>
       <c r="V215">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W215">
         <v>1339.09</v>
@@ -19543,7 +19564,7 @@
         <v>1.84</v>
       </c>
       <c r="AC215">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD215">
         <v>8.6</v>
@@ -19552,19 +19573,19 @@
         <v>60.4</v>
       </c>
       <c r="AF215">
-        <v>228.7515612918575</v>
+        <v>228.75156129185751</v>
       </c>
       <c r="AG215">
-        <v>4.996133943971927</v>
+        <v>4.9961339439719268</v>
       </c>
       <c r="AH215">
-        <v>60.60786296318326</v>
+        <v>60.607862963183258</v>
       </c>
       <c r="AI215" s="2">
         <v>41943</v>
       </c>
     </row>
-    <row r="216" spans="1:35">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -19608,7 +19629,7 @@
         <v>25.1</v>
       </c>
       <c r="O216">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P216">
         <v>23.5</v>
@@ -19629,7 +19650,7 @@
         <v>817.73</v>
       </c>
       <c r="V216">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W216">
         <v>1339.09</v>
@@ -19647,7 +19668,7 @@
         <v>1.84</v>
       </c>
       <c r="AC216">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD216">
         <v>8.6</v>
@@ -19656,19 +19677,19 @@
         <v>60.4</v>
       </c>
       <c r="AF216">
-        <v>232.4391839647892</v>
+        <v>232.43918396478921</v>
       </c>
       <c r="AG216">
-        <v>8.267412121572592</v>
+        <v>8.2674121215725922</v>
       </c>
       <c r="AH216">
-        <v>61.73794087908166</v>
+        <v>61.737940879081663</v>
       </c>
       <c r="AI216" s="2">
         <v>41973</v>
       </c>
     </row>
-    <row r="217" spans="1:35">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -19733,7 +19754,7 @@
         <v>817.73</v>
       </c>
       <c r="V217">
-        <v>293.29</v>
+        <v>293.29000000000002</v>
       </c>
       <c r="W217">
         <v>1339.09</v>
@@ -19751,7 +19772,7 @@
         <v>1.84</v>
       </c>
       <c r="AC217">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="AD217">
         <v>8.6</v>
@@ -19760,19 +19781,19 @@
         <v>60.4</v>
       </c>
       <c r="AF217">
-        <v>250.8178195444002</v>
+        <v>250.81781954440021</v>
       </c>
       <c r="AG217">
-        <v>7.37524534586332</v>
+        <v>7.3752453458633198</v>
       </c>
       <c r="AH217">
-        <v>69.94587521560696</v>
+        <v>69.945875215606961</v>
       </c>
       <c r="AI217" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="218" spans="1:35">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -19858,19 +19879,19 @@
         <v>7.2</v>
       </c>
       <c r="AF218">
-        <v>288.7846583150271</v>
+        <v>288.78465831502712</v>
       </c>
       <c r="AG218">
-        <v>6.234043816422253</v>
+        <v>6.2340438164222531</v>
       </c>
       <c r="AH218">
-        <v>91.78887371608384</v>
+        <v>91.788873716083842</v>
       </c>
       <c r="AI218" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="219" spans="1:35">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -19956,10 +19977,10 @@
         <v>7.2</v>
       </c>
       <c r="AF219">
-        <v>239.6841417799679</v>
+        <v>239.68414177996789</v>
       </c>
       <c r="AG219">
-        <v>4.631003977913673</v>
+        <v>4.6310039779136734</v>
       </c>
       <c r="AH219">
         <v>84.90173959508401</v>
@@ -19968,7 +19989,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="220" spans="1:35">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -20006,7 +20027,7 @@
         <v>27.5</v>
       </c>
       <c r="M220">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="N220">
         <v>23.9</v>
@@ -20054,19 +20075,19 @@
         <v>7.2</v>
       </c>
       <c r="AF220">
-        <v>270.9731045538206</v>
+        <v>270.97310455382058</v>
       </c>
       <c r="AG220">
-        <v>4.631003977913673</v>
+        <v>4.6310039779136734</v>
       </c>
       <c r="AH220">
-        <v>91.43264264085971</v>
+        <v>91.432642640859711</v>
       </c>
       <c r="AI220" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="221" spans="1:35">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -20110,7 +20131,7 @@
         <v>25.3</v>
       </c>
       <c r="O221">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="P221">
         <v>24.1</v>
@@ -20152,19 +20173,19 @@
         <v>7.2</v>
       </c>
       <c r="AF221">
-        <v>224.4849492370718</v>
+        <v>224.48494923707179</v>
       </c>
       <c r="AG221">
-        <v>4.215401056818856</v>
+        <v>4.2154010568188562</v>
       </c>
       <c r="AH221">
-        <v>69.88066258979991</v>
+        <v>69.880662589799911</v>
       </c>
       <c r="AI221" s="2">
         <v>42124</v>
       </c>
     </row>
-    <row r="222" spans="1:35">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -20250,19 +20271,19 @@
         <v>7.2</v>
       </c>
       <c r="AF222">
-        <v>204.9516119456154</v>
+        <v>204.95161194561541</v>
       </c>
       <c r="AG222">
-        <v>2.256130143086149</v>
+        <v>2.2561301430861489</v>
       </c>
       <c r="AH222">
-        <v>70.17752181915336</v>
+        <v>70.177521819153355</v>
       </c>
       <c r="AI222" s="2">
         <v>42155</v>
       </c>
     </row>
-    <row r="223" spans="1:35">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -20300,7 +20321,7 @@
         <v>28.6</v>
       </c>
       <c r="M223">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N223">
         <v>25.7</v>
@@ -20351,16 +20372,16 @@
         <v>202.5173662649172</v>
       </c>
       <c r="AG223">
-        <v>4.571632132042986</v>
+        <v>4.5716321320429856</v>
       </c>
       <c r="AH223">
-        <v>65.13091492014486</v>
+        <v>65.130914920144861</v>
       </c>
       <c r="AI223" s="2">
         <v>42185</v>
       </c>
     </row>
-    <row r="224" spans="1:35">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -20398,7 +20419,7 @@
         <v>28.8</v>
       </c>
       <c r="M224">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N224">
         <v>26.1</v>
@@ -20449,16 +20470,16 @@
         <v>199.7862613548655</v>
       </c>
       <c r="AG224">
-        <v>9.262007955827347</v>
+        <v>9.2620079558273467</v>
       </c>
       <c r="AH224">
-        <v>74.03669180074809</v>
+        <v>74.036691800748088</v>
       </c>
       <c r="AI224" s="2">
         <v>42216</v>
       </c>
     </row>
-    <row r="225" spans="1:35">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20547,16 +20568,16 @@
         <v>205.5453304043223</v>
       </c>
       <c r="AG225">
-        <v>16.20851392269786</v>
+        <v>16.208513922697861</v>
       </c>
       <c r="AH225">
-        <v>68.4557382889034</v>
+        <v>68.455738288903405</v>
       </c>
       <c r="AI225" s="2">
         <v>42247</v>
       </c>
     </row>
-    <row r="226" spans="1:35">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20594,7 +20615,7 @@
         <v>28.1</v>
       </c>
       <c r="M226">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N226">
         <v>25.4</v>
@@ -20642,19 +20663,19 @@
         <v>7.2</v>
       </c>
       <c r="AF226">
-        <v>202.4579944190465</v>
+        <v>202.45799441904651</v>
       </c>
       <c r="AG226">
         <v>19.71145282906846</v>
       </c>
       <c r="AH226">
-        <v>65.60588968711038</v>
+        <v>65.605889687110377</v>
       </c>
       <c r="AI226" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="227" spans="1:35">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20692,7 +20713,7 @@
         <v>28.2</v>
       </c>
       <c r="M227">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N227">
         <v>25.6</v>
@@ -20743,16 +20764,16 @@
         <v>205.9609333254171</v>
       </c>
       <c r="AG227">
-        <v>29.44843555186131</v>
+        <v>29.448435551861309</v>
       </c>
       <c r="AH227">
-        <v>60.14367986700707</v>
+        <v>60.143679867007073</v>
       </c>
       <c r="AI227" s="2">
         <v>42308</v>
       </c>
     </row>
-    <row r="228" spans="1:35">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -20838,19 +20859,19 @@
         <v>7.2</v>
       </c>
       <c r="AF228">
-        <v>198.8956836668052</v>
+        <v>198.89568366680521</v>
       </c>
       <c r="AG228">
-        <v>30.10152585643888</v>
+        <v>30.101525856438879</v>
       </c>
       <c r="AH228">
-        <v>60.38116725048982</v>
+        <v>60.381167250489817</v>
       </c>
       <c r="AI228" s="2">
         <v>42338</v>
       </c>
     </row>
-    <row r="229" spans="1:35">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -20939,16 +20960,16 @@
         <v>202.8142254942706</v>
       </c>
       <c r="AG229">
-        <v>30.33901323992163</v>
+        <v>30.339013239921631</v>
       </c>
       <c r="AH229">
-        <v>72.73051119159295</v>
+        <v>72.730511191592953</v>
       </c>
       <c r="AI229" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="230" spans="1:35">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -20971,7 +20992,7 @@
         <v>1169</v>
       </c>
       <c r="H230">
-        <v>65.90000000000001</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I230">
         <v>0.5</v>
@@ -21013,7 +21034,7 @@
         <v>810.6</v>
       </c>
       <c r="V230">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W230">
         <v>1326.9</v>
@@ -21043,19 +21064,19 @@
         <v>67.3</v>
       </c>
       <c r="AF230">
-        <v>163.1008119480827</v>
+        <v>163.10081194808271</v>
       </c>
       <c r="AG230">
-        <v>28.44781603745629</v>
+        <v>28.447816037456288</v>
       </c>
       <c r="AH230">
-        <v>69.28228530788834</v>
+        <v>69.282285307888344</v>
       </c>
       <c r="AI230" s="2">
         <v>42400</v>
       </c>
     </row>
-    <row r="231" spans="1:35">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -21099,10 +21120,10 @@
         <v>22.7</v>
       </c>
       <c r="O231">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P231">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Q231">
         <v>76</v>
@@ -21120,7 +21141,7 @@
         <v>810.6</v>
       </c>
       <c r="V231">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W231">
         <v>1326.9</v>
@@ -21150,19 +21171,19 @@
         <v>67.3</v>
       </c>
       <c r="AF231">
-        <v>143.3058732886861</v>
+        <v>143.30587328868609</v>
       </c>
       <c r="AG231">
-        <v>23.1731168138446</v>
+        <v>23.173116813844601</v>
       </c>
       <c r="AH231">
-        <v>76.27570675042968</v>
+        <v>76.275706750429677</v>
       </c>
       <c r="AI231" s="2">
         <v>42429</v>
       </c>
     </row>
-    <row r="232" spans="1:35">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -21227,7 +21248,7 @@
         <v>810.6</v>
       </c>
       <c r="V232">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W232">
         <v>1326.9</v>
@@ -21257,19 +21278,19 @@
         <v>67.3</v>
       </c>
       <c r="AF232">
-        <v>182.1252889231316</v>
+        <v>182.12528892313159</v>
       </c>
       <c r="AG232">
-        <v>22.16558999585136</v>
+        <v>22.165589995851359</v>
       </c>
       <c r="AH232">
-        <v>72.06780062822261</v>
+        <v>72.067800628222614</v>
       </c>
       <c r="AI232" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="233" spans="1:35">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -21307,7 +21328,7 @@
         <v>29.1</v>
       </c>
       <c r="M233">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="N233">
         <v>24.3</v>
@@ -21334,7 +21355,7 @@
         <v>810.6</v>
       </c>
       <c r="V233">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W233">
         <v>1326.9</v>
@@ -21364,19 +21385,19 @@
         <v>67.3</v>
       </c>
       <c r="AF233">
-        <v>199.8459076631304</v>
+        <v>199.84590766313039</v>
       </c>
       <c r="AG233">
         <v>14.99436970307592</v>
       </c>
       <c r="AH233">
-        <v>71.94926806139988</v>
+        <v>71.949268061399877</v>
       </c>
       <c r="AI233" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="234" spans="1:35">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -21414,7 +21435,7 @@
         <v>29.3</v>
       </c>
       <c r="M234">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="N234">
         <v>26.4</v>
@@ -21441,7 +21462,7 @@
         <v>810.6</v>
       </c>
       <c r="V234">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W234">
         <v>1326.9</v>
@@ -21471,19 +21492,19 @@
         <v>67.3</v>
       </c>
       <c r="AF234">
-        <v>198.7791145617258</v>
+        <v>198.77911456172581</v>
       </c>
       <c r="AG234">
         <v>13.0385823505008</v>
       </c>
       <c r="AH234">
-        <v>81.90600367450958</v>
+        <v>81.906003674509577</v>
       </c>
       <c r="AI234" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="235" spans="1:35">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -21521,13 +21542,13 @@
         <v>28</v>
       </c>
       <c r="M235">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N235">
         <v>25.6</v>
       </c>
       <c r="O235">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P235">
         <v>22.8</v>
@@ -21548,7 +21569,7 @@
         <v>810.6</v>
       </c>
       <c r="V235">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W235">
         <v>1326.9</v>
@@ -21578,19 +21599,19 @@
         <v>67.3</v>
       </c>
       <c r="AF235">
-        <v>172.0500207431992</v>
+        <v>172.05002074319921</v>
       </c>
       <c r="AG235">
         <v>13.0385823505008</v>
       </c>
       <c r="AH235">
-        <v>69.34155159129971</v>
+        <v>69.341551591299705</v>
       </c>
       <c r="AI235" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="236" spans="1:35">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -21628,7 +21649,7 @@
         <v>27.7</v>
       </c>
       <c r="M236">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N236">
         <v>25.2</v>
@@ -21655,7 +21676,7 @@
         <v>810.6</v>
       </c>
       <c r="V236">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W236">
         <v>1326.9</v>
@@ -21685,19 +21706,19 @@
         <v>67.3</v>
       </c>
       <c r="AF236">
-        <v>204.6464766194512</v>
+        <v>204.64647661945119</v>
       </c>
       <c r="AG236">
-        <v>11.37912641498252</v>
+        <v>11.379126414982521</v>
       </c>
       <c r="AH236">
-        <v>82.26160137497777</v>
+        <v>82.261601374977772</v>
       </c>
       <c r="AI236" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="237" spans="1:35">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -21735,7 +21756,7 @@
         <v>28.6</v>
       </c>
       <c r="M237">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="N237">
         <v>26.2</v>
@@ -21762,7 +21783,7 @@
         <v>810.6</v>
       </c>
       <c r="V237">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W237">
         <v>1326.9</v>
@@ -21792,19 +21813,19 @@
         <v>67.3</v>
       </c>
       <c r="AF237">
-        <v>165.0565993006579</v>
+        <v>165.05659930065789</v>
       </c>
       <c r="AG237">
         <v>15.46849997036686</v>
       </c>
       <c r="AH237">
-        <v>65.48924316956084</v>
+        <v>65.489243169560837</v>
       </c>
       <c r="AI237" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="238" spans="1:35">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -21869,7 +21890,7 @@
         <v>810.6</v>
       </c>
       <c r="V238">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W238">
         <v>1326.9</v>
@@ -21902,16 +21923,16 @@
         <v>159.1299709595211</v>
       </c>
       <c r="AG238">
-        <v>20.74319919397854</v>
+        <v>20.743199193978541</v>
       </c>
       <c r="AH238">
-        <v>59.50334854501275</v>
+        <v>59.503348545012749</v>
       </c>
       <c r="AI238" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="239" spans="1:35">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -21976,7 +21997,7 @@
         <v>810.6</v>
       </c>
       <c r="V239">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W239">
         <v>1326.9</v>
@@ -22006,19 +22027,19 @@
         <v>67.3</v>
       </c>
       <c r="AF239">
-        <v>213.2400877140994</v>
+        <v>213.24008771409939</v>
       </c>
       <c r="AG239">
-        <v>18.49108042434659</v>
+        <v>18.491080424346588</v>
       </c>
       <c r="AH239">
-        <v>62.1110650151129</v>
+        <v>62.111065015112899</v>
       </c>
       <c r="AI239" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="240" spans="1:35">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -22083,7 +22104,7 @@
         <v>810.6</v>
       </c>
       <c r="V240">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W240">
         <v>1326.9</v>
@@ -22113,19 +22134,19 @@
         <v>67.3</v>
       </c>
       <c r="AF240">
-        <v>191.1930302850708</v>
+        <v>191.19303028507079</v>
       </c>
       <c r="AG240">
-        <v>16.77235820541694</v>
+        <v>16.772358205416939</v>
       </c>
       <c r="AH240">
-        <v>49.96147691578261</v>
+        <v>49.961476915782612</v>
       </c>
       <c r="AI240" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="241" spans="1:35">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -22190,7 +22211,7 @@
         <v>810.6</v>
       </c>
       <c r="V241">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="W241">
         <v>1326.9</v>
@@ -22220,7 +22241,7 @@
         <v>67.3</v>
       </c>
       <c r="AF241">
-        <v>55.7695726900966</v>
+        <v>55.769572690096602</v>
       </c>
       <c r="AG241">
         <v>11.14206128133705</v>
@@ -22232,7 +22253,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="242" spans="1:35">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -22276,7 +22297,7 @@
         <v>24.1</v>
       </c>
       <c r="O242">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P242">
         <v>21.6</v>
@@ -22297,7 +22318,7 @@
         <v>807.1</v>
       </c>
       <c r="V242">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W242">
         <v>1320.9</v>
@@ -22327,13 +22348,13 @@
         <v>11.90697674418605</v>
       </c>
       <c r="AH242">
-        <v>63.50387596899225</v>
+        <v>63.503875968992247</v>
       </c>
       <c r="AI242" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="243" spans="1:35">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -22377,7 +22398,7 @@
         <v>23.6</v>
       </c>
       <c r="O243">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="P243">
         <v>20.8</v>
@@ -22398,7 +22419,7 @@
         <v>807.1</v>
       </c>
       <c r="V243">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W243">
         <v>1320.9</v>
@@ -22425,16 +22446,16 @@
         <v>172.4651162790698</v>
       </c>
       <c r="AG243">
-        <v>10.6046511627907</v>
+        <v>10.604651162790701</v>
       </c>
       <c r="AH243">
-        <v>66.41860465116279</v>
+        <v>66.418604651162795</v>
       </c>
       <c r="AI243" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="244" spans="1:35">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -22499,7 +22520,7 @@
         <v>807.1</v>
       </c>
       <c r="V244">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W244">
         <v>1320.9</v>
@@ -22523,19 +22544,19 @@
         <v>6.9</v>
       </c>
       <c r="AF244">
-        <v>149.953488372093</v>
+        <v>149.95348837209301</v>
       </c>
       <c r="AG244">
         <v>15.31782945736434</v>
       </c>
       <c r="AH244">
-        <v>70.75968992248062</v>
+        <v>70.759689922480618</v>
       </c>
       <c r="AI244" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="245" spans="1:35">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -22579,7 +22600,7 @@
         <v>25.4</v>
       </c>
       <c r="O245">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P245">
         <v>23.9</v>
@@ -22600,7 +22621,7 @@
         <v>807.1</v>
       </c>
       <c r="V245">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W245">
         <v>1320.9</v>
@@ -22624,7 +22645,7 @@
         <v>6.9</v>
       </c>
       <c r="AF245">
-        <v>147.6589147286822</v>
+        <v>147.65891472868219</v>
       </c>
       <c r="AG245">
         <v>11.65891472868217</v>
@@ -22636,7 +22657,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="246" spans="1:35">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -22674,7 +22695,7 @@
         <v>28</v>
       </c>
       <c r="M246">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N246">
         <v>25.8</v>
@@ -22701,7 +22722,7 @@
         <v>807.1</v>
       </c>
       <c r="V246">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W246">
         <v>1320.9</v>
@@ -22725,19 +22746,19 @@
         <v>6.9</v>
       </c>
       <c r="AF246">
-        <v>155.4108527131783</v>
+        <v>155.41085271317829</v>
       </c>
       <c r="AG246">
-        <v>11.28682170542636</v>
+        <v>11.286821705426361</v>
       </c>
       <c r="AH246">
-        <v>70.94573643410853</v>
+        <v>70.945736434108525</v>
       </c>
       <c r="AI246" s="2">
         <v>42886</v>
       </c>
     </row>
-    <row r="247" spans="1:35">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -22781,7 +22802,7 @@
         <v>25.9</v>
       </c>
       <c r="O247">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P247">
         <v>24.5</v>
@@ -22802,7 +22823,7 @@
         <v>807.1</v>
       </c>
       <c r="V247">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W247">
         <v>1320.9</v>
@@ -22826,19 +22847,19 @@
         <v>6.9</v>
       </c>
       <c r="AF247">
-        <v>300.4651162790698</v>
+        <v>300.46511627906978</v>
       </c>
       <c r="AG247">
-        <v>21.08527131782946</v>
+        <v>21.085271317829459</v>
       </c>
       <c r="AH247">
-        <v>67.72093023255815</v>
+        <v>67.720930232558146</v>
       </c>
       <c r="AI247" s="2">
         <v>42916</v>
       </c>
     </row>
-    <row r="248" spans="1:35">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -22882,7 +22903,7 @@
         <v>25.2</v>
       </c>
       <c r="O248">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P248">
         <v>23.5</v>
@@ -22903,7 +22924,7 @@
         <v>807.1</v>
       </c>
       <c r="V248">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W248">
         <v>1320.9</v>
@@ -22930,16 +22951,16 @@
         <v>215.5658914728682</v>
       </c>
       <c r="AG248">
-        <v>25.24031007751938</v>
+        <v>25.240310077519378</v>
       </c>
       <c r="AH248">
-        <v>63.56589147286822</v>
+        <v>63.565891472868223</v>
       </c>
       <c r="AI248" s="2">
         <v>42947</v>
       </c>
     </row>
-    <row r="249" spans="1:35">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -22983,7 +23004,7 @@
         <v>25.5</v>
       </c>
       <c r="O249">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P249">
         <v>23.9</v>
@@ -23004,7 +23025,7 @@
         <v>807.1</v>
       </c>
       <c r="V249">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W249">
         <v>1320.9</v>
@@ -23028,19 +23049,19 @@
         <v>6.9</v>
       </c>
       <c r="AF249">
-        <v>174.6976744186046</v>
+        <v>174.69767441860461</v>
       </c>
       <c r="AG249">
-        <v>29.51937984496124</v>
+        <v>29.519379844961239</v>
       </c>
       <c r="AH249">
-        <v>59.34883720930233</v>
+        <v>59.348837209302332</v>
       </c>
       <c r="AI249" s="2">
         <v>42978</v>
       </c>
     </row>
-    <row r="250" spans="1:35">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -23084,7 +23105,7 @@
         <v>25.8</v>
       </c>
       <c r="O250">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P250">
         <v>23.2</v>
@@ -23105,7 +23126,7 @@
         <v>807.1</v>
       </c>
       <c r="V250">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W250">
         <v>1320.9</v>
@@ -23129,19 +23150,19 @@
         <v>6.9</v>
       </c>
       <c r="AF250">
-        <v>228.7131782945736</v>
+        <v>228.71317829457359</v>
       </c>
       <c r="AG250">
         <v>23.75193798449612</v>
       </c>
       <c r="AH250">
-        <v>63.37984496124031</v>
+        <v>63.379844961240309</v>
       </c>
       <c r="AI250" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="251" spans="1:35">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -23206,7 +23227,7 @@
         <v>807.1</v>
       </c>
       <c r="V251">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W251">
         <v>1320.9</v>
@@ -23230,19 +23251,19 @@
         <v>6.9</v>
       </c>
       <c r="AF251">
-        <v>240.9302325581396</v>
+        <v>240.93023255813961</v>
       </c>
       <c r="AG251">
-        <v>19.47286821705426</v>
+        <v>19.472868217054259</v>
       </c>
       <c r="AH251">
-        <v>56.24806201550388</v>
+        <v>56.248062015503884</v>
       </c>
       <c r="AI251" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="252" spans="1:35">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -23307,7 +23328,7 @@
         <v>807.1</v>
       </c>
       <c r="V252">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W252">
         <v>1320.9</v>
@@ -23331,19 +23352,19 @@
         <v>6.9</v>
       </c>
       <c r="AF252">
-        <v>171.2868217054263</v>
+        <v>171.28682170542629</v>
       </c>
       <c r="AG252">
-        <v>11.96899224806202</v>
+        <v>11.968992248062021</v>
       </c>
       <c r="AH252">
-        <v>65.30232558139535</v>
+        <v>65.302325581395351</v>
       </c>
       <c r="AI252" s="2">
         <v>43069</v>
       </c>
     </row>
-    <row r="253" spans="1:35">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -23390,7 +23411,7 @@
         <v>32.1</v>
       </c>
       <c r="P253">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Q253">
         <v>80</v>
@@ -23408,7 +23429,7 @@
         <v>807.1</v>
       </c>
       <c r="V253">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="W253">
         <v>1320.9</v>
@@ -23432,19 +23453,19 @@
         <v>6.9</v>
       </c>
       <c r="AF253">
-        <v>171.968992248062</v>
+        <v>171.96899224806199</v>
       </c>
       <c r="AG253">
-        <v>10.72868217054264</v>
+        <v>10.728682170542641</v>
       </c>
       <c r="AH253">
-        <v>46.51162790697674</v>
+        <v>46.511627906976742</v>
       </c>
       <c r="AI253" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="254" spans="1:35">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -23488,7 +23509,7 @@
         <v>24.1</v>
       </c>
       <c r="O254">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="P254">
         <v>19.5</v>
@@ -23530,7 +23551,7 @@
         <v>98.62</v>
       </c>
       <c r="AC254">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD254">
         <v>5.6</v>
@@ -23539,19 +23560,19 @@
         <v>77.7</v>
       </c>
       <c r="AF254">
-        <v>168.2336093642986</v>
+        <v>168.23360936429859</v>
       </c>
       <c r="AG254">
-        <v>8.280928958346305</v>
+        <v>8.2809289583463048</v>
       </c>
       <c r="AH254">
-        <v>69.17377498287777</v>
+        <v>69.173774982877774</v>
       </c>
       <c r="AI254" s="2">
         <v>43131</v>
       </c>
     </row>
-    <row r="255" spans="1:35">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -23595,10 +23616,10 @@
         <v>22.7</v>
       </c>
       <c r="O255">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P255">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="Q255">
         <v>80</v>
@@ -23637,7 +23658,7 @@
         <v>98.62</v>
       </c>
       <c r="AC255">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD255">
         <v>5.6</v>
@@ -23649,16 +23670,16 @@
         <v>157.8357511985555</v>
       </c>
       <c r="AG255">
-        <v>4.296121038540565</v>
+        <v>4.2961210385405648</v>
       </c>
       <c r="AH255">
-        <v>73.59442126891228</v>
+        <v>73.594421268912285</v>
       </c>
       <c r="AI255" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="256" spans="1:35">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -23702,7 +23723,7 @@
         <v>24.5</v>
       </c>
       <c r="O256">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P256">
         <v>23.4</v>
@@ -23744,7 +23765,7 @@
         <v>98.62</v>
       </c>
       <c r="AC256">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD256">
         <v>5.6</v>
@@ -23753,19 +23774,19 @@
         <v>77.7</v>
       </c>
       <c r="AF256">
-        <v>225.6397484590001</v>
+        <v>225.63974845900009</v>
       </c>
       <c r="AG256">
-        <v>6.599838117178258</v>
+        <v>6.5998381171782583</v>
       </c>
       <c r="AH256">
-        <v>60.20795716331486</v>
+        <v>60.207957163314859</v>
       </c>
       <c r="AI256" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="257" spans="1:35">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -23809,7 +23830,7 @@
         <v>25.4</v>
       </c>
       <c r="O257">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="P257">
         <v>23.6</v>
@@ -23851,7 +23872,7 @@
         <v>98.62</v>
       </c>
       <c r="AC257">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD257">
         <v>5.6</v>
@@ -23863,7 +23884,7 @@
         <v>161.8205591183613</v>
       </c>
       <c r="AG257">
-        <v>7.471514849635764</v>
+        <v>7.4715148496357644</v>
       </c>
       <c r="AH257">
         <v>56.59672498599091</v>
@@ -23872,7 +23893,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="258" spans="1:35">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -23910,7 +23931,7 @@
         <v>28.5</v>
       </c>
       <c r="M258">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="N258">
         <v>25.5</v>
@@ -23958,7 +23979,7 @@
         <v>98.62</v>
       </c>
       <c r="AC258">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD258">
         <v>5.6</v>
@@ -23967,19 +23988,19 @@
         <v>77.7</v>
       </c>
       <c r="AF258">
-        <v>177.3239524313555</v>
+        <v>177.32395243135551</v>
       </c>
       <c r="AG258">
-        <v>8.779029948322023</v>
+        <v>8.7790299483220231</v>
       </c>
       <c r="AH258">
-        <v>55.60052300603948</v>
+        <v>55.600523006039481</v>
       </c>
       <c r="AI258" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="259" spans="1:35">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -24023,7 +24044,7 @@
         <v>25.2</v>
       </c>
       <c r="O259">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P259">
         <v>23.6</v>
@@ -24065,7 +24086,7 @@
         <v>98.62</v>
       </c>
       <c r="AC259">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD259">
         <v>5.6</v>
@@ -24074,19 +24095,19 @@
         <v>77.7</v>
       </c>
       <c r="AF259">
-        <v>145.3209638254156</v>
+        <v>145.32096382541559</v>
       </c>
       <c r="AG259">
         <v>13.94682771932009</v>
       </c>
       <c r="AH259">
-        <v>51.61571508623373</v>
+        <v>51.615715086233728</v>
       </c>
       <c r="AI259" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="260" spans="1:35">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -24130,7 +24151,7 @@
         <v>25.9</v>
       </c>
       <c r="O260">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P260">
         <v>23</v>
@@ -24172,7 +24193,7 @@
         <v>98.62</v>
       </c>
       <c r="AC260">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD260">
         <v>5.6</v>
@@ -24181,19 +24202,19 @@
         <v>77.7</v>
       </c>
       <c r="AF260">
-        <v>180.6238714899446</v>
+        <v>180.62387148994461</v>
       </c>
       <c r="AG260">
-        <v>14.94302969927153</v>
+        <v>14.943029699271531</v>
       </c>
       <c r="AH260">
-        <v>54.04395741236536</v>
+        <v>54.043957412365359</v>
       </c>
       <c r="AI260" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="261" spans="1:35">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -24279,7 +24300,7 @@
         <v>98.62</v>
       </c>
       <c r="AC261">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD261">
         <v>5.6</v>
@@ -24288,19 +24309,19 @@
         <v>77.7</v>
       </c>
       <c r="AF261">
-        <v>167.486457879335</v>
+        <v>167.48645787933501</v>
       </c>
       <c r="AG261">
         <v>17.93163563912583</v>
       </c>
       <c r="AH261">
-        <v>50.99308884876409</v>
+        <v>50.993088848764089</v>
       </c>
       <c r="AI261" s="2">
         <v>43343</v>
       </c>
     </row>
-    <row r="262" spans="1:35">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -24386,7 +24407,7 @@
         <v>98.62</v>
       </c>
       <c r="AC262">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD262">
         <v>5.6</v>
@@ -24395,19 +24416,19 @@
         <v>77.7</v>
       </c>
       <c r="AF262">
-        <v>162.4431853558309</v>
+        <v>162.44318535583091</v>
       </c>
       <c r="AG262">
-        <v>23.41074652885873</v>
+        <v>23.410746528858731</v>
       </c>
       <c r="AH262">
-        <v>48.56484652263246</v>
+        <v>48.564846522632457</v>
       </c>
       <c r="AI262" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="263" spans="1:35">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -24445,7 +24466,7 @@
         <v>28.2</v>
       </c>
       <c r="M263">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N263">
         <v>25.6</v>
@@ -24493,7 +24514,7 @@
         <v>98.62</v>
       </c>
       <c r="AC263">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD263">
         <v>5.6</v>
@@ -24502,19 +24523,19 @@
         <v>77.7</v>
       </c>
       <c r="AF263">
-        <v>160.8243571384098</v>
+        <v>160.82435713840979</v>
       </c>
       <c r="AG263">
-        <v>32.06525122968682</v>
+        <v>32.065251229686822</v>
       </c>
       <c r="AH263">
-        <v>45.14040221654941</v>
+        <v>45.140402216549411</v>
       </c>
       <c r="AI263" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="264" spans="1:35">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -24558,7 +24579,7 @@
         <v>25.2</v>
       </c>
       <c r="O264">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="P264">
         <v>22.8</v>
@@ -24600,7 +24621,7 @@
         <v>98.62</v>
       </c>
       <c r="AC264">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD264">
         <v>5.6</v>
@@ -24609,19 +24630,19 @@
         <v>77.7</v>
       </c>
       <c r="AF264">
-        <v>185.169043023473</v>
+        <v>185.16904302347299</v>
       </c>
       <c r="AG264">
-        <v>25.46541311250856</v>
+        <v>25.465413112508561</v>
       </c>
       <c r="AH264">
-        <v>42.27632152418903</v>
+        <v>42.276321524189029</v>
       </c>
       <c r="AI264" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="265" spans="1:35">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -24707,7 +24728,7 @@
         <v>98.62</v>
       </c>
       <c r="AC265">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AD265">
         <v>5.6</v>
@@ -24716,13 +24737,13 @@
         <v>77.7</v>
       </c>
       <c r="AF265">
-        <v>181.2464977274142</v>
+        <v>181.24649772741421</v>
       </c>
       <c r="AG265">
-        <v>19.9240395990287</v>
+        <v>19.924039599028699</v>
       </c>
       <c r="AH265">
-        <v>54.23074528360625</v>
+        <v>54.230745283606247</v>
       </c>
       <c r="AI265" s="2">
         <v>43465</v>
